--- a/capiq_data/in_process_data/IQ24522.xlsx
+++ b/capiq_data/in_process_data/IQ24522.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B8292-05E5-4594-BC60-22937A34ED32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B1DE8-9FDF-44A4-880B-CF584A075BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"887b8ec7-6147-4b45-a244-b1d268012365"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4a526932-b3a4-47bc-958b-62ed9477005b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>52.51</v>
+        <v>-303.077</v>
       </c>
       <c r="D2">
-        <v>284.68799999999999</v>
+        <v>37.244</v>
       </c>
       <c r="E2">
-        <v>175.36600000000001</v>
+        <v>22.67</v>
       </c>
       <c r="F2">
-        <v>213.31100000000001</v>
+        <v>20.981000000000002</v>
       </c>
       <c r="G2">
-        <v>858.46699999999998</v>
+        <v>355.34399999999999</v>
       </c>
       <c r="H2">
-        <v>2352.6759999999999</v>
+        <v>2790.777</v>
       </c>
       <c r="I2">
-        <v>26.375</v>
+        <v>52.212000000000003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>145.15100000000001</v>
+        <v>84.947999999999993</v>
       </c>
       <c r="O2">
-        <v>175.071</v>
+        <v>386.37799999999999</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>301.50099999999998</v>
       </c>
       <c r="Q2">
-        <v>34.298999999999999</v>
+        <v>-221.065</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="T2">
-        <v>2177.605</v>
+        <v>2404.3989999999999</v>
       </c>
       <c r="U2">
-        <v>231.86600000000001</v>
+        <v>150.13</v>
       </c>
       <c r="V2">
-        <v>110.35899999999999</v>
+        <v>-23.771000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-6.875</v>
+        <v>8.5809999999999995</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="Z2">
-        <v>-19.754999999999999</v>
+        <v>-169.80600000000001</v>
       </c>
       <c r="AA2">
-        <v>52.51</v>
+        <v>-303.077</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>50.616999999999997</v>
+        <v>-2222.7800000000002</v>
       </c>
       <c r="D3">
-        <v>275.95299999999997</v>
+        <v>40.209000000000003</v>
       </c>
       <c r="E3">
-        <v>169.65600000000001</v>
+        <v>23.864999999999998</v>
       </c>
       <c r="F3">
-        <v>186.88499999999999</v>
+        <v>21.303000000000001</v>
       </c>
       <c r="G3">
-        <v>816.81399999999996</v>
+        <v>360.03</v>
       </c>
       <c r="H3">
-        <v>2374.799</v>
+        <v>576.65300000000002</v>
       </c>
       <c r="I3">
-        <v>28.547999999999998</v>
+        <v>49.036999999999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.32800000000000001</v>
       </c>
       <c r="N3">
-        <v>134.095</v>
+        <v>79.596000000000004</v>
       </c>
       <c r="O3">
-        <v>164.61099999999999</v>
+        <v>381.09300000000002</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>301.33999999999997</v>
       </c>
       <c r="Q3">
-        <v>-14.692</v>
+        <v>-15.984</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2210.1880000000001</v>
+        <v>195.56</v>
       </c>
       <c r="U3">
-        <v>217.17400000000001</v>
+        <v>134.14599999999999</v>
       </c>
       <c r="V3">
-        <v>88.510999999999996</v>
+        <v>-43.783000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-30.707000000000001</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="Z3">
-        <v>-28.347999999999999</v>
+        <v>49.698999999999998</v>
       </c>
       <c r="AA3">
-        <v>50.616999999999997</v>
+        <v>-2222.7800000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>47.920999999999999</v>
+        <v>-92.608000000000004</v>
       </c>
       <c r="D4">
-        <v>276.98899999999998</v>
+        <v>43.140999999999998</v>
       </c>
       <c r="E4">
-        <v>178.26</v>
+        <v>25.225999999999999</v>
       </c>
       <c r="F4">
-        <v>187.34200000000001</v>
+        <v>26.507000000000001</v>
       </c>
       <c r="G4">
-        <v>750.95299999999997</v>
+        <v>310.82400000000001</v>
       </c>
       <c r="H4">
-        <v>2404.1489999999999</v>
+        <v>519.59500000000003</v>
       </c>
       <c r="I4">
-        <v>29.053000000000001</v>
+        <v>38.112000000000002</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>138.708</v>
+        <v>86.01</v>
       </c>
       <c r="O4">
-        <v>175.834</v>
+        <v>402.55399999999997</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>301.08600000000001</v>
       </c>
       <c r="Q4">
-        <v>-11.545</v>
+        <v>-13.891999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2228.3150000000001</v>
+        <v>117.041</v>
       </c>
       <c r="U4">
-        <v>205.62899999999999</v>
+        <v>120.254</v>
       </c>
       <c r="V4">
-        <v>111.848</v>
+        <v>-30.631</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-42.441000000000003</v>
+        <v>1.893</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="Z4">
-        <v>-38.65</v>
+        <v>33.021000000000001</v>
       </c>
       <c r="AA4">
-        <v>47.920999999999999</v>
+        <v>-92.608000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>42.284999999999997</v>
+        <v>-55.359000000000002</v>
       </c>
       <c r="D5">
-        <v>281.85599999999999</v>
+        <v>42.753999999999998</v>
       </c>
       <c r="E5">
-        <v>182.66499999999999</v>
+        <v>19.614000000000001</v>
       </c>
       <c r="F5">
-        <v>188.572</v>
+        <v>26.734999999999999</v>
       </c>
       <c r="G5">
-        <v>924.47900000000004</v>
+        <v>273.19900000000001</v>
       </c>
       <c r="H5">
-        <v>2301.9569999999999</v>
+        <v>468.70800000000003</v>
       </c>
       <c r="I5">
-        <v>30.349</v>
+        <v>40.11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>138.87799999999999</v>
+        <v>88.174999999999997</v>
       </c>
       <c r="O5">
-        <v>179.946</v>
+        <v>398.86200000000002</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>300.8</v>
       </c>
       <c r="Q5">
-        <v>149.97</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2122.011</v>
+        <v>69.846000000000004</v>
       </c>
       <c r="U5">
-        <v>355.59899999999999</v>
+        <v>100.654</v>
       </c>
       <c r="V5">
-        <v>116.289</v>
+        <v>-11.243</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-155.505</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Z5">
-        <v>239.66499999999999</v>
+        <v>6.484</v>
       </c>
       <c r="AA5">
-        <v>42.284999999999997</v>
+        <v>-55.359000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>60.081000000000003</v>
+        <v>-64.765000000000001</v>
       </c>
       <c r="D6">
-        <v>323.74</v>
+        <v>37.11</v>
       </c>
       <c r="E6">
-        <v>210.93600000000001</v>
+        <v>20.067</v>
       </c>
       <c r="F6">
-        <v>221.196</v>
+        <v>-19.666</v>
       </c>
       <c r="G6">
-        <v>1122.02</v>
+        <v>227.999</v>
       </c>
       <c r="H6">
-        <v>2345.5010000000002</v>
+        <v>421.47800000000001</v>
       </c>
       <c r="I6">
-        <v>38.247</v>
+        <v>32.076000000000001</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>148.392</v>
+        <v>91.298000000000002</v>
       </c>
       <c r="O6">
-        <v>189.251</v>
+        <v>404.24400000000003</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>300.51799999999997</v>
       </c>
       <c r="Q6">
-        <v>203.59800000000001</v>
+        <v>-21.88</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2380</v>
+        <v>841</v>
       </c>
       <c r="T6">
-        <v>2156.25</v>
+        <v>17.234000000000002</v>
       </c>
       <c r="U6">
-        <v>559.197</v>
+        <v>78.774000000000001</v>
       </c>
       <c r="V6">
-        <v>135.90700000000001</v>
+        <v>-33.625</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-65.435000000000002</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="Z6">
-        <v>181.446</v>
+        <v>14.585000000000001</v>
       </c>
       <c r="AA6">
-        <v>60.081000000000003</v>
+        <v>-64.765000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>43.226999999999997</v>
+        <v>-59.058</v>
       </c>
       <c r="D7">
-        <v>319.44799999999998</v>
+        <v>37.927</v>
       </c>
       <c r="E7">
-        <v>215.85499999999999</v>
+        <v>17.294</v>
       </c>
       <c r="F7">
-        <v>194.523</v>
+        <v>14.616</v>
       </c>
       <c r="G7">
-        <v>679.54100000000005</v>
+        <v>197.959</v>
       </c>
       <c r="H7">
-        <v>2414.1179999999999</v>
+        <v>350.80500000000001</v>
       </c>
       <c r="I7">
-        <v>32.944000000000003</v>
+        <v>28.209</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="N7">
-        <v>148.53800000000001</v>
+        <v>78.486000000000004</v>
       </c>
       <c r="O7">
-        <v>212.93</v>
+        <v>385.68599999999998</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>300.25099999999998</v>
       </c>
       <c r="Q7">
-        <v>-414.47300000000001</v>
+        <v>-14.965</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2201.1880000000001</v>
+        <v>-34.881</v>
       </c>
       <c r="U7">
-        <v>144.72399999999999</v>
+        <v>63.808999999999997</v>
       </c>
       <c r="V7">
-        <v>92.503</v>
+        <v>-35.969000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-9.0760000000000005</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Z7">
-        <v>-163.23500000000001</v>
+        <v>23.472999999999999</v>
       </c>
       <c r="AA7">
-        <v>43.226999999999997</v>
+        <v>-59.058</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>44.238999999999997</v>
+        <v>-42.241999999999997</v>
       </c>
       <c r="D8">
-        <v>331.30599999999998</v>
+        <v>36.322000000000003</v>
       </c>
       <c r="E8">
-        <v>206.316</v>
+        <v>17.032</v>
       </c>
       <c r="F8">
-        <v>200.04599999999999</v>
+        <v>13.356</v>
       </c>
       <c r="G8">
-        <v>756.60500000000002</v>
+        <v>181.10599999999999</v>
       </c>
       <c r="H8">
-        <v>2445.576</v>
+        <v>312.202</v>
       </c>
       <c r="I8">
-        <v>44.545999999999999</v>
+        <v>22.175000000000001</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>165.852</v>
+        <v>74.262</v>
       </c>
       <c r="O8">
-        <v>230.94300000000001</v>
+        <v>382.892</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>302.88200000000001</v>
       </c>
       <c r="Q8">
-        <v>38.271999999999998</v>
+        <v>24.332000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2214.6329999999998</v>
+        <v>-70.69</v>
       </c>
       <c r="U8">
-        <v>182.99600000000001</v>
+        <v>88.141000000000005</v>
       </c>
       <c r="V8">
-        <v>149.55199999999999</v>
+        <v>-8.0109999999999992</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-52.628</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1.569</v>
       </c>
       <c r="Z8">
-        <v>-1.6739999999999999</v>
+        <v>35.113999999999997</v>
       </c>
       <c r="AA8">
-        <v>44.238999999999997</v>
+        <v>-42.241999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>48.231000000000002</v>
+        <v>-47.533000000000001</v>
       </c>
       <c r="D9">
-        <v>345.32100000000003</v>
+        <v>35.375</v>
       </c>
       <c r="E9">
-        <v>236.232</v>
+        <v>16.059000000000001</v>
       </c>
       <c r="F9">
-        <v>211.1</v>
+        <v>13.766</v>
       </c>
       <c r="G9">
-        <v>753.68899999999996</v>
+        <v>162.375</v>
       </c>
       <c r="H9">
-        <v>2539.4540000000002</v>
+        <v>266.38400000000001</v>
       </c>
       <c r="I9">
-        <v>52.749000000000002</v>
+        <v>25.405999999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>212.92</v>
+        <v>72.203000000000003</v>
       </c>
       <c r="O9">
-        <v>279.51600000000002</v>
+        <v>379.19499999999999</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>302.50200000000001</v>
       </c>
       <c r="Q9">
-        <v>-0.34599999999999997</v>
+        <v>35.353000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2259.9380000000001</v>
+        <v>-112.81100000000001</v>
       </c>
       <c r="U9">
-        <v>182.65</v>
+        <v>123.494</v>
       </c>
       <c r="V9">
-        <v>135.25200000000001</v>
+        <v>-11.401</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-25.161999999999999</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="Z9">
-        <v>-39.241999999999997</v>
+        <v>53.473999999999997</v>
       </c>
       <c r="AA9">
-        <v>48.231000000000002</v>
+        <v>-47.533000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>68.292000000000002</v>
+        <v>-55.603999999999999</v>
       </c>
       <c r="D10">
-        <v>377.87200000000001</v>
+        <v>35.351999999999997</v>
       </c>
       <c r="E10">
-        <v>218.77699999999999</v>
+        <v>17.574000000000002</v>
       </c>
       <c r="F10">
-        <v>238.37799999999999</v>
+        <v>18.914000000000001</v>
       </c>
       <c r="G10">
-        <v>728.38400000000001</v>
+        <v>141.68299999999999</v>
       </c>
       <c r="H10">
-        <v>2600.627</v>
+        <v>229.863</v>
       </c>
       <c r="I10">
-        <v>43.290999999999997</v>
+        <v>16.847000000000001</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>202.94399999999999</v>
+        <v>81.099000000000004</v>
       </c>
       <c r="O10">
-        <v>254.87299999999999</v>
+        <v>397.95299999999997</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>302.21300000000002</v>
       </c>
       <c r="Q10">
-        <v>19.338999999999999</v>
+        <v>-12.231999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3074</v>
+        <v>567</v>
       </c>
       <c r="T10">
-        <v>2345.7539999999999</v>
+        <v>-168.09</v>
       </c>
       <c r="U10">
-        <v>201.989</v>
+        <v>111.262</v>
       </c>
       <c r="V10">
-        <v>152.71299999999999</v>
+        <v>-10.375999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-21.163</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.006</v>
       </c>
       <c r="Z10">
-        <v>-18.126000000000001</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AA10">
-        <v>68.292000000000002</v>
+        <v>-55.603999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>71.486999999999995</v>
+        <v>-8.6470000000000002</v>
       </c>
       <c r="D11">
-        <v>368.04599999999999</v>
+        <v>36.564</v>
       </c>
       <c r="E11">
-        <v>232.328</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="F11">
-        <v>247.654</v>
+        <v>18.678999999999998</v>
       </c>
       <c r="G11">
-        <v>831.65300000000002</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="H11">
-        <v>2646.6669999999999</v>
+        <v>199.524</v>
       </c>
       <c r="I11">
-        <v>57.573999999999998</v>
+        <v>15.215</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.307</v>
       </c>
       <c r="N11">
-        <v>211.90899999999999</v>
+        <v>66.168999999999997</v>
       </c>
       <c r="O11">
-        <v>261.89</v>
+        <v>373.077</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>301.90600000000001</v>
       </c>
       <c r="Q11">
-        <v>-36.713999999999999</v>
+        <v>-12.63</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2384.777</v>
+        <v>-173.553</v>
       </c>
       <c r="U11">
-        <v>165.27500000000001</v>
+        <v>98.632000000000005</v>
       </c>
       <c r="V11">
-        <v>93.224000000000004</v>
+        <v>-13.000999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-43.11</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z11">
-        <v>-23.67</v>
+        <v>2.569</v>
       </c>
       <c r="AA11">
-        <v>71.486999999999995</v>
+        <v>-8.6470000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>61.895000000000003</v>
+        <v>-14.646000000000001</v>
       </c>
       <c r="D12">
-        <v>378.10599999999999</v>
+        <v>37.759</v>
       </c>
       <c r="E12">
-        <v>237.286</v>
+        <v>22.004000000000001</v>
       </c>
       <c r="F12">
-        <v>253.40100000000001</v>
+        <v>21.927</v>
       </c>
       <c r="G12">
-        <v>859.38400000000001</v>
+        <v>123.61499999999999</v>
       </c>
       <c r="H12">
-        <v>2725.27</v>
+        <v>177.02099999999999</v>
       </c>
       <c r="I12">
-        <v>50.37</v>
+        <v>13.63</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>226.57400000000001</v>
+        <v>52.045000000000002</v>
       </c>
       <c r="O12">
-        <v>277.39699999999999</v>
+        <v>357.76900000000001</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>301.05399999999997</v>
       </c>
       <c r="Q12">
-        <v>39.590000000000003</v>
+        <v>-7.9130000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2447.873</v>
+        <v>-180.74799999999999</v>
       </c>
       <c r="U12">
-        <v>204.86500000000001</v>
+        <v>90.718999999999994</v>
       </c>
       <c r="V12">
-        <v>141.06399999999999</v>
+        <v>-13.831</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-22.914000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.98799999999999999</v>
+        <v>6.1879999999999997</v>
       </c>
       <c r="AA12">
-        <v>61.895000000000003</v>
+        <v>-14.646000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>79.756</v>
+        <v>-3.9089999999999998</v>
       </c>
       <c r="D13">
-        <v>395.79</v>
+        <v>41.767000000000003</v>
       </c>
       <c r="E13">
-        <v>256.45299999999997</v>
+        <v>25.349</v>
       </c>
       <c r="F13">
-        <v>263.75099999999998</v>
+        <v>27.56</v>
       </c>
       <c r="G13">
-        <v>910.64200000000005</v>
+        <v>117.33799999999999</v>
       </c>
       <c r="H13">
-        <v>2885.125</v>
+        <v>170.40700000000001</v>
       </c>
       <c r="I13">
-        <v>49.073</v>
+        <v>13.334</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>285.42399999999998</v>
+        <v>47.386000000000003</v>
       </c>
       <c r="O13">
-        <v>341.995</v>
+        <v>352.98200000000003</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>300.91199999999998</v>
       </c>
       <c r="Q13">
-        <v>30.15</v>
+        <v>-6.8230000000000004</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2543.13</v>
+        <v>-182.57499999999999</v>
       </c>
       <c r="U13">
-        <v>235.01499999999999</v>
+        <v>83.896000000000001</v>
       </c>
       <c r="V13">
-        <v>157.88800000000001</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-2.3730000000000002</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-36.171999999999997</v>
+        <v>-8.1890000000000001</v>
       </c>
       <c r="AA13">
-        <v>79.756</v>
+        <v>-3.9089999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>80.349000000000004</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="D14">
-        <v>435.98</v>
+        <v>45.168999999999997</v>
       </c>
       <c r="E14">
-        <v>271.988</v>
+        <v>20.727</v>
       </c>
       <c r="F14">
-        <v>302.029</v>
+        <v>32.966999999999999</v>
       </c>
       <c r="G14">
-        <v>1029.7139999999999</v>
+        <v>202.416</v>
       </c>
       <c r="H14">
-        <v>2957.6849999999999</v>
+        <v>278.94099999999997</v>
       </c>
       <c r="I14">
-        <v>73.709999999999994</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>263.166</v>
+        <v>62.66</v>
       </c>
       <c r="O14">
-        <v>328.25400000000002</v>
+        <v>454.29500000000002</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>401.77499999999998</v>
       </c>
       <c r="Q14">
-        <v>98.876000000000005</v>
+        <v>84.528000000000006</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3908</v>
+        <v>535</v>
       </c>
       <c r="T14">
-        <v>2629.431</v>
+        <v>-175.35400000000001</v>
       </c>
       <c r="U14">
-        <v>333.89100000000002</v>
+        <v>105.652</v>
       </c>
       <c r="V14">
-        <v>171.732</v>
+        <v>7.7370000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-46.845999999999997</v>
+        <v>102.883</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>39.103999999999999</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="AA14">
-        <v>80.349000000000004</v>
+        <v>-2.0790000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>72.8</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D15">
-        <v>453.50200000000001</v>
+        <v>48.366999999999997</v>
       </c>
       <c r="E15">
-        <v>301.95400000000001</v>
+        <v>24.504999999999999</v>
       </c>
       <c r="F15">
-        <v>313.89</v>
+        <v>36.220999999999997</v>
       </c>
       <c r="G15">
-        <v>1127.3</v>
+        <v>174.05699999999999</v>
       </c>
       <c r="H15">
-        <v>3651.4920000000002</v>
+        <v>245.16300000000001</v>
       </c>
       <c r="I15">
-        <v>61.707000000000001</v>
+        <v>12.837</v>
       </c>
       <c r="J15">
-        <v>590.71400000000006</v>
+        <v>363.12700000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-17.861999999999998</v>
+        <v>-63.003999999999998</v>
       </c>
       <c r="N15">
-        <v>244.18600000000001</v>
+        <v>46.345999999999997</v>
       </c>
       <c r="O15">
-        <v>939.34699999999998</v>
+        <v>414.89800000000002</v>
       </c>
       <c r="P15">
-        <v>590.71400000000006</v>
+        <v>363.77100000000002</v>
       </c>
       <c r="Q15">
-        <v>-85.165000000000006</v>
+        <v>23.829000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2712.145</v>
+        <v>-169.73500000000001</v>
       </c>
       <c r="U15">
-        <v>248.726</v>
+        <v>132.85300000000001</v>
       </c>
       <c r="V15">
-        <v>89.022999999999996</v>
+        <v>8.6359999999999992</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>555.50800000000004</v>
+        <v>-36.512999999999998</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="Z15">
-        <v>-258.97300000000001</v>
+        <v>50.307000000000002</v>
       </c>
       <c r="AA15">
-        <v>72.8</v>
+        <v>2.9209999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>72.885999999999996</v>
+        <v>6.8029999999999999</v>
       </c>
       <c r="D16">
-        <v>476.03500000000003</v>
+        <v>50.786000000000001</v>
       </c>
       <c r="E16">
-        <v>325.38499999999999</v>
+        <v>26.151</v>
       </c>
       <c r="F16">
-        <v>326.71699999999998</v>
+        <v>39.703000000000003</v>
       </c>
       <c r="G16">
-        <v>1199.6669999999999</v>
+        <v>102.98699999999999</v>
       </c>
       <c r="H16">
-        <v>3768.6570000000002</v>
+        <v>190.422</v>
       </c>
       <c r="I16">
-        <v>70.534000000000006</v>
+        <v>13.84</v>
       </c>
       <c r="J16">
-        <v>595.38499999999999</v>
+        <v>294.60399999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>283.29199999999997</v>
+        <v>47.52</v>
       </c>
       <c r="O16">
-        <v>995.91300000000001</v>
+        <v>347.12400000000002</v>
       </c>
       <c r="P16">
-        <v>595.38499999999999</v>
+        <v>295.11399999999998</v>
       </c>
       <c r="Q16">
-        <v>5.4390000000000001</v>
+        <v>-84.021000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>4558</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2772.7440000000001</v>
+        <v>-156.702</v>
       </c>
       <c r="U16">
-        <v>254.16499999999999</v>
+        <v>44.082000000000001</v>
       </c>
       <c r="V16">
-        <v>200.22399999999999</v>
+        <v>12.478</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-62.036000000000001</v>
+        <v>-62.04</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-66.495999999999995</v>
+        <v>-29.716999999999999</v>
       </c>
       <c r="AA16">
-        <v>72.885999999999996</v>
+        <v>6.8029999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>91.155000000000001</v>
+        <v>11.249000000000001</v>
       </c>
       <c r="D17">
-        <v>498.04199999999997</v>
+        <v>53.286000000000001</v>
       </c>
       <c r="E17">
-        <v>326.74700000000001</v>
+        <v>28.524999999999999</v>
       </c>
       <c r="F17">
-        <v>339.23</v>
+        <v>41.537999999999997</v>
       </c>
       <c r="G17">
-        <v>1152.6759999999999</v>
+        <v>108.286</v>
       </c>
       <c r="H17">
-        <v>3854.2910000000002</v>
+        <v>188.98699999999999</v>
       </c>
       <c r="I17">
-        <v>74.801000000000002</v>
+        <v>9.5169999999999995</v>
       </c>
       <c r="J17">
-        <v>600.09799999999996</v>
+        <v>281.48899999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>301.601</v>
+        <v>45.667999999999999</v>
       </c>
       <c r="O17">
-        <v>1005.9109999999999</v>
+        <v>332.59800000000001</v>
       </c>
       <c r="P17">
-        <v>600.09799999999996</v>
+        <v>281.86099999999999</v>
       </c>
       <c r="Q17">
-        <v>-39.826000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>4858</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>2848.38</v>
+        <v>-143.61099999999999</v>
       </c>
       <c r="U17">
-        <v>214.339</v>
+        <v>45.942999999999998</v>
       </c>
       <c r="V17">
-        <v>173.28200000000001</v>
+        <v>14.548</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-27.895</v>
+        <v>-12.157</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-111.307</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="AA17">
-        <v>91.155000000000001</v>
+        <v>11.249000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>97.106999999999999</v>
+        <v>13.391</v>
       </c>
       <c r="D18">
-        <v>536.29499999999996</v>
+        <v>57.576000000000001</v>
       </c>
       <c r="E18">
-        <v>329.57799999999997</v>
+        <v>30.332999999999998</v>
       </c>
       <c r="F18">
-        <v>373.09399999999999</v>
+        <v>46.402999999999999</v>
       </c>
       <c r="G18">
-        <v>1262.5550000000001</v>
+        <v>108.669</v>
       </c>
       <c r="H18">
-        <v>4001.5459999999998</v>
+        <v>182.74299999999999</v>
       </c>
       <c r="I18">
-        <v>77.412000000000006</v>
+        <v>10.349</v>
       </c>
       <c r="J18">
-        <v>604.851</v>
+        <v>256.61399999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>334.01100000000002</v>
+        <v>46.765999999999998</v>
       </c>
       <c r="O18">
-        <v>1056.211</v>
+        <v>308.67399999999998</v>
       </c>
       <c r="P18">
-        <v>604.851</v>
+        <v>256.846</v>
       </c>
       <c r="Q18">
-        <v>24.311</v>
+        <v>-10.903</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>5105</v>
+        <v>605</v>
       </c>
       <c r="T18">
-        <v>2945.335</v>
+        <v>-125.931</v>
       </c>
       <c r="U18">
-        <v>238.65</v>
+        <v>35.317999999999998</v>
       </c>
       <c r="V18">
-        <v>195.541</v>
+        <v>15.574999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-29.55</v>
+        <v>-21.152000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-42.616</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="AA18">
-        <v>97.106999999999999</v>
+        <v>13.391</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>77.745999999999995</v>
+        <v>14.079000000000001</v>
       </c>
       <c r="D19">
-        <v>526.53599999999994</v>
+        <v>60.095999999999997</v>
       </c>
       <c r="E19">
-        <v>356.62900000000002</v>
+        <v>34.284999999999997</v>
       </c>
       <c r="F19">
-        <v>357.24200000000002</v>
+        <v>48.572000000000003</v>
       </c>
       <c r="G19">
-        <v>1241.579</v>
+        <v>125.03700000000001</v>
       </c>
       <c r="H19">
-        <v>3986.913</v>
+        <v>201.61</v>
       </c>
       <c r="I19">
-        <v>67.637</v>
+        <v>13.202</v>
       </c>
       <c r="J19">
-        <v>609.64700000000005</v>
+        <v>256.61399999999998</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="N19">
-        <v>269.33100000000002</v>
+        <v>50.399000000000001</v>
       </c>
       <c r="O19">
-        <v>1005.231</v>
+        <v>312.113</v>
       </c>
       <c r="P19">
-        <v>609.64700000000005</v>
+        <v>256.71199999999999</v>
       </c>
       <c r="Q19">
-        <v>93.906999999999996</v>
+        <v>4.5629999999999997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>5405</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2981.6819999999998</v>
+        <v>-110.503</v>
       </c>
       <c r="U19">
-        <v>332.55700000000002</v>
+        <v>39.881</v>
       </c>
       <c r="V19">
-        <v>99.728999999999999</v>
+        <v>18.702000000000002</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-56.213000000000001</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>210.351</v>
+        <v>-5.3410000000000002</v>
       </c>
       <c r="AA19">
-        <v>77.745999999999995</v>
+        <v>14.079000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>67.2</v>
+        <v>15.9</v>
       </c>
       <c r="D20">
-        <v>540.72299999999996</v>
+        <v>64.649000000000001</v>
       </c>
       <c r="E20">
-        <v>342.93</v>
+        <v>40.366</v>
       </c>
       <c r="F20">
-        <v>360.81299999999999</v>
+        <v>51.896999999999998</v>
       </c>
       <c r="G20">
-        <v>1151.4760000000001</v>
+        <v>152.95599999999999</v>
       </c>
       <c r="H20">
-        <v>4131.1049999999996</v>
+        <v>364.73099999999999</v>
       </c>
       <c r="I20">
-        <v>85.311000000000007</v>
+        <v>18.116</v>
       </c>
       <c r="J20">
-        <v>614.48400000000004</v>
+        <v>256.61399999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>348.24200000000002</v>
+        <v>61.087000000000003</v>
       </c>
       <c r="O20">
-        <v>1085.7929999999999</v>
+        <v>323.81400000000002</v>
       </c>
       <c r="P20">
-        <v>614.48400000000004</v>
+        <v>257.20400000000001</v>
       </c>
       <c r="Q20">
-        <v>-75.108999999999995</v>
+        <v>11.147</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>5725</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3045.3119999999999</v>
+        <v>40.917000000000002</v>
       </c>
       <c r="U20">
-        <v>257.44799999999998</v>
+        <v>51.027999999999999</v>
       </c>
       <c r="V20">
-        <v>264.02300000000002</v>
+        <v>16.923999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-51.21</v>
+        <v>4.0519999999999996</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-86.655000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="AA20">
-        <v>67.2</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>88.04</v>
+        <v>272.26</v>
       </c>
       <c r="D21">
-        <v>551.03</v>
+        <v>75.712999999999994</v>
       </c>
       <c r="E21">
-        <v>365.95699999999999</v>
+        <v>43.935000000000002</v>
       </c>
       <c r="F21">
-        <v>367.82600000000002</v>
+        <v>60.417999999999999</v>
       </c>
       <c r="G21">
-        <v>1210.9849999999999</v>
+        <v>120.129</v>
       </c>
       <c r="H21">
-        <v>4184.8090000000002</v>
+        <v>647.03899999999999</v>
       </c>
       <c r="I21">
-        <v>60.902000000000001</v>
+        <v>12.863</v>
       </c>
       <c r="J21">
-        <v>619.36500000000001</v>
+        <v>200</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>332.00599999999997</v>
+        <v>57.899000000000001</v>
       </c>
       <c r="O21">
-        <v>1099.146</v>
+        <v>269.447</v>
       </c>
       <c r="P21">
-        <v>619.36500000000001</v>
+        <v>200.42</v>
       </c>
       <c r="Q21">
-        <v>-0.97699999999999998</v>
+        <v>-16.943999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>5943</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>3085.663</v>
+        <v>377.59199999999998</v>
       </c>
       <c r="U21">
-        <v>256.471</v>
+        <v>34.084000000000003</v>
       </c>
       <c r="V21">
-        <v>182.608</v>
+        <v>19.498999999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-65.084999999999994</v>
+        <v>-54.851999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>19.239999999999998</v>
+        <v>26.997</v>
       </c>
       <c r="AA21">
-        <v>88.04</v>
+        <v>272.26</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>88.42</v>
+        <v>25.759</v>
       </c>
       <c r="D22">
-        <v>579.15899999999999</v>
+        <v>82.656999999999996</v>
       </c>
       <c r="E22">
-        <v>380.399</v>
+        <v>52.161999999999999</v>
       </c>
       <c r="F22">
-        <v>385.947</v>
+        <v>66.572999999999993</v>
       </c>
       <c r="G22">
-        <v>1253.1880000000001</v>
+        <v>354.99799999999999</v>
       </c>
       <c r="H22">
-        <v>4181.6840000000002</v>
+        <v>891.49900000000002</v>
       </c>
       <c r="I22">
-        <v>61.981999999999999</v>
+        <v>16.021999999999998</v>
       </c>
       <c r="J22">
-        <v>618.04700000000003</v>
+        <v>200</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>332.44</v>
+        <v>61.875999999999998</v>
       </c>
       <c r="O22">
-        <v>1060.806</v>
+        <v>267.28500000000003</v>
       </c>
       <c r="P22">
-        <v>618.04700000000003</v>
+        <v>200</v>
       </c>
       <c r="Q22">
-        <v>33.002000000000002</v>
+        <v>57.707999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6084</v>
+        <v>784</v>
       </c>
       <c r="T22">
-        <v>3120.8780000000002</v>
+        <v>624.21400000000006</v>
       </c>
       <c r="U22">
-        <v>289.47300000000001</v>
+        <v>91.792000000000002</v>
       </c>
       <c r="V22">
-        <v>217.791</v>
+        <v>27.672999999999998</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-95.22</v>
+        <v>208.38900000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>10.124000000000001</v>
+        <v>-169.88</v>
       </c>
       <c r="AA22">
-        <v>88.42</v>
+        <v>25.759</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>74.858000000000004</v>
+        <v>11.494999999999999</v>
       </c>
       <c r="D23">
-        <v>567.72500000000002</v>
+        <v>90.825000000000003</v>
       </c>
       <c r="E23">
-        <v>365.10300000000001</v>
+        <v>55.798000000000002</v>
       </c>
       <c r="F23">
-        <v>372.98899999999998</v>
+        <v>71.509</v>
       </c>
       <c r="G23">
-        <v>1330.828</v>
+        <v>354.19299999999998</v>
       </c>
       <c r="H23">
-        <v>4183.7520000000004</v>
+        <v>931.26599999999996</v>
       </c>
       <c r="I23">
-        <v>63.822000000000003</v>
+        <v>18.411000000000001</v>
       </c>
       <c r="J23">
-        <v>623.48500000000001</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>333.233</v>
+        <v>71.655000000000001</v>
       </c>
       <c r="O23">
-        <v>1070.17</v>
+        <v>276.26</v>
       </c>
       <c r="P23">
-        <v>623.48500000000001</v>
+        <v>200</v>
       </c>
       <c r="Q23">
-        <v>23.439</v>
+        <v>-26.77</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3113.5819999999999</v>
+        <v>655.00599999999997</v>
       </c>
       <c r="U23">
-        <v>312.91199999999998</v>
+        <v>65.022000000000006</v>
       </c>
       <c r="V23">
-        <v>191.37299999999999</v>
+        <v>33.161000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-116.871</v>
+        <v>10.042</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>29.265999999999998</v>
+        <v>-54.238999999999997</v>
       </c>
       <c r="AA23">
-        <v>74.858000000000004</v>
+        <v>11.494999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>73.635000000000005</v>
+        <v>11.263999999999999</v>
       </c>
       <c r="D24">
-        <v>572.13499999999999</v>
+        <v>100.649</v>
       </c>
       <c r="E24">
-        <v>364.40100000000001</v>
+        <v>63.963000000000001</v>
       </c>
       <c r="F24">
-        <v>365.81200000000001</v>
+        <v>79.453999999999994</v>
       </c>
       <c r="G24">
-        <v>1365.5840000000001</v>
+        <v>337.089</v>
       </c>
       <c r="H24">
-        <v>4269.7219999999998</v>
+        <v>969.47699999999998</v>
       </c>
       <c r="I24">
-        <v>68.248999999999995</v>
+        <v>17.081</v>
       </c>
       <c r="J24">
-        <v>628.97</v>
+        <v>200</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>376.54199999999997</v>
+        <v>70.757000000000005</v>
       </c>
       <c r="O24">
-        <v>1119.249</v>
+        <v>275.37099999999998</v>
       </c>
       <c r="P24">
-        <v>628.97</v>
+        <v>200</v>
       </c>
       <c r="Q24">
-        <v>13.731999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>6263</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>3150.473</v>
+        <v>694.10599999999999</v>
       </c>
       <c r="U24">
-        <v>326.64400000000001</v>
+        <v>73.501999999999995</v>
       </c>
       <c r="V24">
-        <v>244.369</v>
+        <v>27.745999999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-88.153999999999996</v>
+        <v>12.289</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-61.508000000000003</v>
+        <v>-17.957999999999998</v>
       </c>
       <c r="AA24">
-        <v>73.635000000000005</v>
+        <v>11.263999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>76</v>
+        <v>14.019</v>
       </c>
       <c r="D25">
-        <v>584.06500000000005</v>
+        <v>111.495</v>
       </c>
       <c r="E25">
-        <v>357.99700000000001</v>
+        <v>67.375</v>
       </c>
       <c r="F25">
-        <v>379.59800000000001</v>
+        <v>86.510999999999996</v>
       </c>
       <c r="G25">
-        <v>1386.9639999999999</v>
+        <v>359.46800000000002</v>
       </c>
       <c r="H25">
-        <v>4353.6350000000002</v>
+        <v>1027.6949999999999</v>
       </c>
       <c r="I25">
-        <v>74.328000000000003</v>
+        <v>19.925999999999998</v>
       </c>
       <c r="J25">
-        <v>634.50400000000002</v>
+        <v>200</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>431.536</v>
+        <v>81.619</v>
       </c>
       <c r="O25">
-        <v>1184.704</v>
+        <v>286</v>
       </c>
       <c r="P25">
-        <v>634.50400000000002</v>
+        <v>200</v>
       </c>
       <c r="Q25">
-        <v>55.158999999999999</v>
+        <v>25.620999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>6334</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>3168.931</v>
+        <v>741.69500000000005</v>
       </c>
       <c r="U25">
-        <v>381.803</v>
+        <v>99.123000000000005</v>
       </c>
       <c r="V25">
-        <v>251.84800000000001</v>
+        <v>48.49</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-86.063000000000002</v>
+        <v>15.920999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-26.033000000000001</v>
+        <v>-22.277000000000001</v>
       </c>
       <c r="AA25">
-        <v>76</v>
+        <v>14.019</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>91.638999999999996</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="D26">
-        <v>616.12400000000002</v>
+        <v>125.703</v>
       </c>
       <c r="E26">
-        <v>368.596</v>
+        <v>86.231999999999999</v>
       </c>
       <c r="F26">
-        <v>412.649</v>
+        <v>114.098</v>
       </c>
       <c r="G26">
-        <v>1309.9169999999999</v>
+        <v>374.673</v>
       </c>
       <c r="H26">
-        <v>4373.1459999999997</v>
+        <v>1247.932</v>
       </c>
       <c r="I26">
-        <v>76.12</v>
+        <v>22.63</v>
       </c>
       <c r="J26">
-        <v>640.08699999999999</v>
+        <v>200</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>374.58800000000002</v>
+        <v>89.263999999999996</v>
       </c>
       <c r="O26">
-        <v>1148.7760000000001</v>
+        <v>293.23899999999998</v>
       </c>
       <c r="P26">
-        <v>640.08699999999999</v>
+        <v>200</v>
       </c>
       <c r="Q26">
-        <v>-57.634</v>
+        <v>-18.527999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6490</v>
+        <v>1058</v>
       </c>
       <c r="T26">
-        <v>3224.37</v>
+        <v>954.69299999999998</v>
       </c>
       <c r="U26">
-        <v>324.16899999999998</v>
+        <v>80.594999999999999</v>
       </c>
       <c r="V26">
-        <v>184.22200000000001</v>
+        <v>22.57</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-68.691000000000003</v>
+        <v>22.177</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.20899999999999999</v>
+        <v>-37.088999999999999</v>
       </c>
       <c r="AA26">
-        <v>91.638999999999996</v>
+        <v>20.623000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>74.582999999999998</v>
+        <v>19.178999999999998</v>
       </c>
       <c r="D27">
-        <v>600.29300000000001</v>
+        <v>139.274</v>
       </c>
       <c r="E27">
-        <v>400.79199999999997</v>
+        <v>86.873000000000005</v>
       </c>
       <c r="F27">
-        <v>394.56599999999997</v>
+        <v>104.794</v>
       </c>
       <c r="G27">
-        <v>1398.461</v>
+        <v>452.84500000000003</v>
       </c>
       <c r="H27">
-        <v>4449.9949999999999</v>
+        <v>1466.6369999999999</v>
       </c>
       <c r="I27">
-        <v>90.179000000000002</v>
+        <v>35.399000000000001</v>
       </c>
       <c r="J27">
-        <v>645.71900000000005</v>
+        <v>199.96</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>381.87599999999998</v>
+        <v>99.18</v>
       </c>
       <c r="O27">
-        <v>1191.4490000000001</v>
+        <v>305.31900000000002</v>
       </c>
       <c r="P27">
-        <v>645.71900000000005</v>
+        <v>199.96</v>
       </c>
       <c r="Q27">
-        <v>199.08500000000001</v>
+        <v>43.65</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>6672</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>3258.5459999999998</v>
+        <v>1161.318</v>
       </c>
       <c r="U27">
-        <v>522.31899999999996</v>
+        <v>124.245</v>
       </c>
       <c r="V27">
-        <v>142.61799999999999</v>
+        <v>52.872999999999998</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-88.858000000000004</v>
+        <v>18.047000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>231.83199999999999</v>
+        <v>-1.61</v>
       </c>
       <c r="AA27">
-        <v>74.582999999999998</v>
+        <v>19.178999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>56.752000000000002</v>
+        <v>21.646000000000001</v>
       </c>
       <c r="D28">
-        <v>605.83199999999999</v>
+        <v>152.654</v>
       </c>
       <c r="E28">
-        <v>395.86500000000001</v>
+        <v>99.156999999999996</v>
       </c>
       <c r="F28">
-        <v>391.15199999999999</v>
+        <v>112.895</v>
       </c>
       <c r="G28">
-        <v>1238.357</v>
+        <v>479.62599999999998</v>
       </c>
       <c r="H28">
-        <v>4489.0389999999998</v>
+        <v>1519.9749999999999</v>
       </c>
       <c r="I28">
-        <v>91.741</v>
+        <v>26.349</v>
       </c>
       <c r="J28">
-        <v>651.4</v>
+        <v>199.96</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>399.06400000000002</v>
+        <v>82.927000000000007</v>
       </c>
       <c r="O28">
-        <v>1201.867</v>
+        <v>289.67399999999998</v>
       </c>
       <c r="P28">
-        <v>651.4</v>
+        <v>199.96</v>
       </c>
       <c r="Q28">
-        <v>-170.584</v>
+        <v>-24.082999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>7084</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>3287.172</v>
+        <v>1230.3009999999999</v>
       </c>
       <c r="U28">
-        <v>352.50099999999998</v>
+        <v>100.16200000000001</v>
       </c>
       <c r="V28">
-        <v>224.63300000000001</v>
+        <v>35.774999999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-105.511</v>
+        <v>15.654</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>6.5000000000000002E-2</v>
+        <v>-48.417000000000002</v>
       </c>
       <c r="AA28">
-        <v>56.752000000000002</v>
+        <v>21.646000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>63.911000000000001</v>
+        <v>24.263999999999999</v>
       </c>
       <c r="D29">
-        <v>624.44000000000005</v>
+        <v>161.24</v>
       </c>
       <c r="E29">
-        <v>400.839</v>
+        <v>108.205</v>
       </c>
       <c r="F29">
-        <v>398.95</v>
+        <v>117.429</v>
       </c>
       <c r="G29">
-        <v>1295.7829999999999</v>
+        <v>570.66999999999996</v>
       </c>
       <c r="H29">
-        <v>4509.134</v>
+        <v>1574.62</v>
       </c>
       <c r="I29">
-        <v>88.338999999999999</v>
+        <v>27.463999999999999</v>
       </c>
       <c r="J29">
-        <v>657.13099999999997</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>430.30599999999998</v>
+        <v>94.483000000000004</v>
       </c>
       <c r="O29">
-        <v>1236.479</v>
+        <v>302.82299999999998</v>
       </c>
       <c r="P29">
-        <v>657.13099999999997</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q29">
-        <v>16.280999999999999</v>
+        <v>52.642000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>7439</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>3272.6550000000002</v>
+        <v>1271.797</v>
       </c>
       <c r="U29">
-        <v>368.15199999999999</v>
+        <v>152.804</v>
       </c>
       <c r="V29">
-        <v>236.291</v>
+        <v>76.787000000000006</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-119.738</v>
+        <v>7.173</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>17.384</v>
+        <v>-9.3810000000000002</v>
       </c>
       <c r="AA29">
-        <v>63.911000000000001</v>
+        <v>24.263999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>27.52</v>
+        <v>35.878</v>
       </c>
       <c r="D30">
-        <v>658.47</v>
+        <v>183.238</v>
       </c>
       <c r="E30">
-        <v>461.45699999999999</v>
+        <v>118.944</v>
       </c>
       <c r="F30">
-        <v>428.53</v>
+        <v>159.54400000000001</v>
       </c>
       <c r="G30">
-        <v>1346.2460000000001</v>
+        <v>695.04200000000003</v>
       </c>
       <c r="H30">
-        <v>4648.9160000000002</v>
+        <v>1656.047</v>
       </c>
       <c r="I30">
-        <v>80.278000000000006</v>
+        <v>18.54</v>
       </c>
       <c r="J30">
-        <v>662.91300000000001</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>456.69400000000002</v>
+        <v>88.375</v>
       </c>
       <c r="O30">
-        <v>1286.4469999999999</v>
+        <v>297.495</v>
       </c>
       <c r="P30">
-        <v>662.91300000000001</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q30">
-        <v>-54.978999999999999</v>
+        <v>-7.726</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7650</v>
+        <v>1300</v>
       </c>
       <c r="T30">
-        <v>3362.4690000000001</v>
+        <v>1358.5519999999999</v>
       </c>
       <c r="U30">
-        <v>313.38200000000001</v>
+        <v>145.078</v>
       </c>
       <c r="V30">
-        <v>197.441</v>
+        <v>71.519000000000005</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-50.898000000000003</v>
+        <v>11.586</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>76.991</v>
+        <v>-75.435000000000002</v>
       </c>
       <c r="AA30">
-        <v>27.52</v>
+        <v>35.878</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>53.713999999999999</v>
+        <v>36.911000000000001</v>
       </c>
       <c r="D31">
-        <v>668.72400000000005</v>
+        <v>187.01900000000001</v>
       </c>
       <c r="E31">
-        <v>484.61700000000002</v>
+        <v>122.708</v>
       </c>
       <c r="F31">
-        <v>433.899</v>
+        <v>135.44399999999999</v>
       </c>
       <c r="G31">
-        <v>1459.7260000000001</v>
+        <v>474.92700000000002</v>
       </c>
       <c r="H31">
-        <v>4686.9040000000005</v>
+        <v>1699.1769999999999</v>
       </c>
       <c r="I31">
-        <v>81.239000000000004</v>
+        <v>23.152999999999999</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1130.595</v>
+        <v>89.766000000000005</v>
       </c>
       <c r="O31">
-        <v>1300.6469999999999</v>
+        <v>301.55799999999999</v>
       </c>
       <c r="P31">
-        <v>668.745</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q31">
-        <v>51.029000000000003</v>
+        <v>63.417000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>7454</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3386.2570000000001</v>
+        <v>1397.6189999999999</v>
       </c>
       <c r="U31">
-        <v>363.70299999999997</v>
+        <v>208.495</v>
       </c>
       <c r="V31">
-        <v>192.01</v>
+        <v>88.009</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-30.661000000000001</v>
+        <v>7.7859999999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2.3839999999999999</v>
+        <v>-5.7160000000000002</v>
       </c>
       <c r="AA31">
-        <v>53.713999999999999</v>
+        <v>36.911000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>43.061</v>
+        <v>34.334000000000003</v>
       </c>
       <c r="D32">
-        <v>662.75900000000001</v>
+        <v>194.00399999999999</v>
       </c>
       <c r="E32">
-        <v>479.86500000000001</v>
+        <v>125.765</v>
       </c>
       <c r="F32">
-        <v>427.27199999999999</v>
+        <v>140.316</v>
       </c>
       <c r="G32">
-        <v>2484.16</v>
+        <v>454.21699999999998</v>
       </c>
       <c r="H32">
-        <v>5604.7039999999997</v>
+        <v>1755.4169999999999</v>
       </c>
       <c r="I32">
-        <v>84.167000000000002</v>
+        <v>25.852</v>
       </c>
       <c r="J32">
-        <v>855.37800000000004</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1136.328</v>
+        <v>81.341999999999999</v>
       </c>
       <c r="O32">
-        <v>2159.4259999999999</v>
+        <v>292.82</v>
       </c>
       <c r="P32">
-        <v>1530.0070000000001</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q32">
-        <v>612.88099999999997</v>
+        <v>-43.078000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>7443</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>3445.2779999999998</v>
+        <v>1462.597</v>
       </c>
       <c r="U32">
-        <v>977.48800000000006</v>
+        <v>165.417</v>
       </c>
       <c r="V32">
-        <v>219.68100000000001</v>
+        <v>69.793999999999997</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>823.92700000000002</v>
+        <v>20.628</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-329.70400000000001</v>
+        <v>-102.928</v>
       </c>
       <c r="AA32">
-        <v>43.061</v>
+        <v>34.334000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>107.583</v>
+        <v>33.36</v>
       </c>
       <c r="D33">
-        <v>669.62800000000004</v>
+        <v>197.34700000000001</v>
       </c>
       <c r="E33">
-        <v>466.36399999999998</v>
+        <v>126.934</v>
       </c>
       <c r="F33">
-        <v>430.38200000000001</v>
+        <v>140.68799999999999</v>
       </c>
       <c r="G33">
-        <v>2429.7890000000002</v>
+        <v>463.14</v>
       </c>
       <c r="H33">
-        <v>5363.8869999999997</v>
+        <v>1800.857</v>
       </c>
       <c r="I33">
-        <v>96.051000000000002</v>
+        <v>26.239000000000001</v>
       </c>
       <c r="J33">
-        <v>864.67899999999997</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1195.9380000000001</v>
+        <v>83.355999999999995</v>
       </c>
       <c r="O33">
-        <v>2208.357</v>
+        <v>294.72399999999999</v>
       </c>
       <c r="P33">
-        <v>1545.2429999999999</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q33">
-        <v>-271.76799999999997</v>
+        <v>-23.395</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>7574</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>3155.53</v>
+        <v>1506.133</v>
       </c>
       <c r="U33">
-        <v>705.40700000000004</v>
+        <v>142.02199999999999</v>
       </c>
       <c r="V33">
-        <v>310.48099999999999</v>
+        <v>93.218000000000004</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-433.53399999999999</v>
+        <v>2.4209999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-59.75</v>
+        <v>-80.454999999999998</v>
       </c>
       <c r="AA33">
-        <v>107.583</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>94.015000000000001</v>
+        <v>40.533000000000001</v>
       </c>
       <c r="D34">
-        <v>713.36300000000006</v>
+        <v>212.554</v>
       </c>
       <c r="E34">
-        <v>479.88900000000001</v>
+        <v>139.61199999999999</v>
       </c>
       <c r="F34">
-        <v>469.43599999999998</v>
+        <v>192.066</v>
       </c>
       <c r="G34">
-        <v>2535.3539999999998</v>
+        <v>501.90899999999999</v>
       </c>
       <c r="H34">
-        <v>5461.77</v>
+        <v>1880.951</v>
       </c>
       <c r="I34">
-        <v>99.088999999999999</v>
+        <v>21.164999999999999</v>
       </c>
       <c r="J34">
-        <v>874.08</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1210.7090000000001</v>
+        <v>100.456</v>
       </c>
       <c r="O34">
-        <v>2269.91</v>
+        <v>312.18099999999998</v>
       </c>
       <c r="P34">
-        <v>1560.6320000000001</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q34">
-        <v>330.416</v>
+        <v>14.052</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7519</v>
+        <v>1500</v>
       </c>
       <c r="T34">
-        <v>3191.86</v>
+        <v>1568.77</v>
       </c>
       <c r="U34">
-        <v>1036.4549999999999</v>
+        <v>156.07400000000001</v>
       </c>
       <c r="V34">
-        <v>286.15499999999997</v>
+        <v>92.472999999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-126.124</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>288.423</v>
+        <v>23.681999999999999</v>
       </c>
       <c r="AA34">
-        <v>94.015000000000001</v>
+        <v>40.533000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>107.13</v>
+        <v>37.081000000000003</v>
       </c>
       <c r="D35">
-        <v>706.50800000000004</v>
+        <v>210.36799999999999</v>
       </c>
       <c r="E35">
-        <v>529.346</v>
+        <v>149.28</v>
       </c>
       <c r="F35">
-        <v>465.76499999999999</v>
+        <v>150.006</v>
       </c>
       <c r="G35">
-        <v>1818.4179999999999</v>
+        <v>638.49599999999998</v>
       </c>
       <c r="H35">
-        <v>5182.7619999999997</v>
+        <v>1939.3119999999999</v>
       </c>
       <c r="I35">
-        <v>102.371</v>
+        <v>17.390999999999998</v>
       </c>
       <c r="J35">
-        <v>883.58399999999995</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-690</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>569.70600000000002</v>
+        <v>90.968999999999994</v>
       </c>
       <c r="O35">
-        <v>1899.5450000000001</v>
+        <v>307.97000000000003</v>
       </c>
       <c r="P35">
-        <v>1278.51</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q35">
-        <v>-346.60300000000001</v>
+        <v>59.136000000000003</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3283.2170000000001</v>
+        <v>1631.3420000000001</v>
       </c>
       <c r="U35">
-        <v>688.69799999999998</v>
+        <v>215.21</v>
       </c>
       <c r="V35">
-        <v>160.85</v>
+        <v>90.468999999999994</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-745.29499999999996</v>
+        <v>4.0890000000000004</v>
       </c>
       <c r="Y35">
-        <v>293.38099999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>497.19900000000001</v>
+        <v>-5.2039999999999997</v>
       </c>
       <c r="AA35">
-        <v>107.13</v>
+        <v>37.081000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>113.91500000000001</v>
+        <v>36.006999999999998</v>
       </c>
       <c r="D36">
-        <v>705.07399999999996</v>
+        <v>204.6</v>
       </c>
       <c r="E36">
-        <v>523.38199999999995</v>
+        <v>144.53700000000001</v>
       </c>
       <c r="F36">
-        <v>462.88099999999997</v>
+        <v>144.59100000000001</v>
       </c>
       <c r="G36">
-        <v>1744.7940000000001</v>
+        <v>802.26599999999996</v>
       </c>
       <c r="H36">
-        <v>5343.2359999999999</v>
+        <v>1988.97</v>
       </c>
       <c r="I36">
-        <v>126.539</v>
+        <v>19.279</v>
       </c>
       <c r="J36">
-        <v>893.19100000000003</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>590.81399999999996</v>
+        <v>89.927999999999997</v>
       </c>
       <c r="O36">
-        <v>1948.472</v>
+        <v>308.07900000000001</v>
       </c>
       <c r="P36">
-        <v>1288.413</v>
+        <v>199.85499999999999</v>
       </c>
       <c r="Q36">
-        <v>-174.11500000000001</v>
+        <v>105.873</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3394.7640000000001</v>
+        <v>1680.8910000000001</v>
       </c>
       <c r="U36">
-        <v>515.89599999999996</v>
+        <v>321.08300000000003</v>
       </c>
       <c r="V36">
-        <v>317.92899999999997</v>
+        <v>103.831</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-83.694000000000003</v>
+        <v>-9.5730000000000004</v>
       </c>
       <c r="Y36">
-        <v>299.06200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-275.435</v>
+        <v>32.994</v>
       </c>
       <c r="AA36">
-        <v>113.91500000000001</v>
+        <v>36.006999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>137.88999999999999</v>
+        <v>32.744999999999997</v>
       </c>
       <c r="D37">
-        <v>709.91200000000003</v>
+        <v>206.5</v>
       </c>
       <c r="E37">
-        <v>516.65700000000004</v>
+        <v>152.13200000000001</v>
       </c>
       <c r="F37">
-        <v>462.97399999999999</v>
+        <v>144.51300000000001</v>
       </c>
       <c r="G37">
-        <v>2253.9079999999999</v>
+        <v>776.572</v>
       </c>
       <c r="H37">
-        <v>6357.4340000000002</v>
+        <v>2028.671</v>
       </c>
       <c r="I37">
-        <v>108.187</v>
+        <v>24.141999999999999</v>
       </c>
       <c r="J37">
-        <v>1823.4480000000001</v>
+        <v>199.755</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>602.52300000000002</v>
+        <v>110.30500000000001</v>
       </c>
       <c r="O37">
-        <v>2855.8339999999998</v>
+        <v>330.22500000000002</v>
       </c>
       <c r="P37">
-        <v>2207.1570000000002</v>
+        <v>199.755</v>
       </c>
       <c r="Q37">
-        <v>223.358</v>
+        <v>-118.28100000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3501.6</v>
+        <v>1698.4459999999999</v>
       </c>
       <c r="U37">
-        <v>738.46199999999999</v>
+        <v>202.80199999999999</v>
       </c>
       <c r="V37">
-        <v>297.38499999999999</v>
+        <v>105.24299999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>836.28499999999997</v>
+        <v>-30.954000000000001</v>
       </c>
       <c r="Y37">
-        <v>296.75</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-752.00900000000001</v>
+        <v>-162.28200000000001</v>
       </c>
       <c r="AA37">
-        <v>137.88999999999999</v>
+        <v>32.744999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>119.1</v>
+        <v>40.08</v>
       </c>
       <c r="D38">
-        <v>772.12300000000005</v>
+        <v>238.30500000000001</v>
       </c>
       <c r="E38">
-        <v>551.94299999999998</v>
+        <v>154.26900000000001</v>
       </c>
       <c r="F38">
-        <v>514.37300000000005</v>
+        <v>192.92500000000001</v>
       </c>
       <c r="G38">
-        <v>2231.6129999999998</v>
+        <v>761.173</v>
       </c>
       <c r="H38">
-        <v>7006.8860000000004</v>
+        <v>2087.5100000000002</v>
       </c>
       <c r="I38">
-        <v>138.946</v>
+        <v>23.997</v>
       </c>
       <c r="J38">
-        <v>1839.7909999999999</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>693.33600000000001</v>
+        <v>327.29300000000001</v>
       </c>
       <c r="O38">
-        <v>3348.9279999999999</v>
+        <v>348.78800000000001</v>
       </c>
       <c r="P38">
-        <v>2671.4349999999999</v>
+        <v>199.755</v>
       </c>
       <c r="Q38">
-        <v>-345.48099999999999</v>
+        <v>-21.497</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>7724</v>
+        <v>1750</v>
       </c>
       <c r="T38">
-        <v>3657.9580000000001</v>
+        <v>1738.722</v>
       </c>
       <c r="U38">
-        <v>393.745</v>
+        <v>181.30500000000001</v>
       </c>
       <c r="V38">
-        <v>282.14</v>
+        <v>124.869</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-42.972999999999999</v>
+        <v>-6.0990000000000002</v>
       </c>
       <c r="Y38">
-        <v>692.18100000000004</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-410.68200000000002</v>
+        <v>-110.756</v>
       </c>
       <c r="AA38">
-        <v>119.1</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>123.146</v>
+        <v>40.878</v>
       </c>
       <c r="D39">
-        <v>764.30200000000002</v>
+        <v>240.029</v>
       </c>
       <c r="E39">
-        <v>613.80899999999997</v>
+        <v>148.696</v>
       </c>
       <c r="F39">
-        <v>495.72</v>
+        <v>172.55500000000001</v>
       </c>
       <c r="G39">
-        <v>2014.5840000000001</v>
+        <v>854.42499999999995</v>
       </c>
       <c r="H39">
-        <v>6947.9560000000001</v>
+        <v>2116.683</v>
       </c>
       <c r="I39">
-        <v>114.1</v>
+        <v>25.952999999999999</v>
       </c>
       <c r="J39">
-        <v>1856.287</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>630.24699999999996</v>
+        <v>309.25900000000001</v>
       </c>
       <c r="O39">
-        <v>3275.7379999999998</v>
+        <v>336.23399999999998</v>
       </c>
       <c r="P39">
-        <v>2671.192</v>
+        <v>199.72499999999999</v>
       </c>
       <c r="Q39">
-        <v>-8.3170000000000002</v>
+        <v>-8.0809999999999995</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3672.2179999999998</v>
+        <v>1780.4490000000001</v>
       </c>
       <c r="U39">
-        <v>384.10300000000001</v>
+        <v>173.22399999999999</v>
       </c>
       <c r="V39">
-        <v>223.24299999999999</v>
+        <v>87.753</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-111.839</v>
+        <v>-15.026</v>
       </c>
       <c r="Y39">
-        <v>673.029</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>141.03700000000001</v>
+        <v>-44.508000000000003</v>
       </c>
       <c r="AA39">
-        <v>123.146</v>
+        <v>40.878</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>161.91499999999999</v>
+        <v>38.122999999999998</v>
       </c>
       <c r="D40">
-        <v>794.71500000000003</v>
+        <v>245.31800000000001</v>
       </c>
       <c r="E40">
-        <v>644.65899999999999</v>
+        <v>164.57400000000001</v>
       </c>
       <c r="F40">
-        <v>517.91099999999994</v>
+        <v>173.47800000000001</v>
       </c>
       <c r="G40">
-        <v>2192.9989999999998</v>
+        <v>778.16700000000003</v>
       </c>
       <c r="H40">
-        <v>7224.7979999999998</v>
+        <v>2202.998</v>
       </c>
       <c r="I40">
-        <v>153.958</v>
+        <v>33.529000000000003</v>
       </c>
       <c r="J40">
-        <v>1872.9369999999999</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>657.42200000000003</v>
+        <v>199.834</v>
       </c>
       <c r="O40">
-        <v>3320.5030000000002</v>
+        <v>229.91</v>
       </c>
       <c r="P40">
-        <v>2685.0929999999998</v>
+        <v>63.561999999999998</v>
       </c>
       <c r="Q40">
-        <v>187.04300000000001</v>
+        <v>-52.718000000000004</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3904.2950000000001</v>
+        <v>1973.088</v>
       </c>
       <c r="U40">
-        <v>572.28800000000001</v>
+        <v>120.506</v>
       </c>
       <c r="V40">
-        <v>298.69099999999997</v>
+        <v>86.38</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-30.166</v>
+        <v>6.3209999999999997</v>
       </c>
       <c r="Y40">
-        <v>673.678</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>30.446999999999999</v>
+        <v>-65.448999999999998</v>
       </c>
       <c r="AA40">
-        <v>161.91499999999999</v>
+        <v>38.122999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>158.62299999999999</v>
+        <v>39.709000000000003</v>
       </c>
       <c r="D41">
-        <v>792.84500000000003</v>
+        <v>253.55099999999999</v>
       </c>
       <c r="E41">
-        <v>630.40599999999995</v>
+        <v>158.11500000000001</v>
       </c>
       <c r="F41">
-        <v>509.40600000000001</v>
+        <v>175.739</v>
       </c>
       <c r="G41">
-        <v>2243.221</v>
+        <v>855.80799999999999</v>
       </c>
       <c r="H41">
-        <v>7514.393</v>
+        <v>2262.752</v>
       </c>
       <c r="I41">
-        <v>114.85</v>
+        <v>29.649000000000001</v>
       </c>
       <c r="J41">
-        <v>1889.7429999999999</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>717.12400000000002</v>
+        <v>201.16499999999999</v>
       </c>
       <c r="O41">
-        <v>3406.7759999999998</v>
+        <v>228.60499999999999</v>
       </c>
       <c r="P41">
-        <v>2708.6579999999999</v>
+        <v>58.62</v>
       </c>
       <c r="Q41">
-        <v>171.11099999999999</v>
+        <v>77.061000000000007</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4107.6170000000002</v>
+        <v>2034.1469999999999</v>
       </c>
       <c r="U41">
-        <v>742.52099999999996</v>
+        <v>197.56700000000001</v>
       </c>
       <c r="V41">
-        <v>401.97300000000001</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-10.56</v>
+        <v>-2.0960000000000001</v>
       </c>
       <c r="Y41">
-        <v>682.62300000000005</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>6.1529999999999996</v>
+        <v>-0.94799999999999995</v>
       </c>
       <c r="AA41">
-        <v>158.62299999999999</v>
+        <v>39.709000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>52.51</v>
+      </c>
+      <c r="D42">
+        <v>284.68799999999999</v>
+      </c>
+      <c r="E42">
+        <v>175.36600000000001</v>
+      </c>
+      <c r="F42">
+        <v>213.31100000000001</v>
+      </c>
+      <c r="G42">
+        <v>858.46699999999998</v>
+      </c>
+      <c r="H42">
+        <v>2352.6759999999999</v>
+      </c>
+      <c r="I42">
+        <v>26.375</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>145.15100000000001</v>
+      </c>
+      <c r="O42">
+        <v>175.071</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34.298999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2200</v>
+      </c>
+      <c r="T42">
+        <v>2177.605</v>
+      </c>
+      <c r="U42">
+        <v>231.86600000000001</v>
+      </c>
+      <c r="V42">
+        <v>110.35899999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-6.875</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-19.754999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>52.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>50.616999999999997</v>
+      </c>
+      <c r="D43">
+        <v>275.95299999999997</v>
+      </c>
+      <c r="E43">
+        <v>169.65600000000001</v>
+      </c>
+      <c r="F43">
+        <v>186.88499999999999</v>
+      </c>
+      <c r="G43">
+        <v>816.81399999999996</v>
+      </c>
+      <c r="H43">
+        <v>2374.799</v>
+      </c>
+      <c r="I43">
+        <v>28.547999999999998</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>134.095</v>
+      </c>
+      <c r="O43">
+        <v>164.61099999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-14.692</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2210.1880000000001</v>
+      </c>
+      <c r="U43">
+        <v>217.17400000000001</v>
+      </c>
+      <c r="V43">
+        <v>88.510999999999996</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-30.707000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-28.347999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>50.616999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>47.920999999999999</v>
+      </c>
+      <c r="D44">
+        <v>276.98899999999998</v>
+      </c>
+      <c r="E44">
+        <v>178.26</v>
+      </c>
+      <c r="F44">
+        <v>187.34200000000001</v>
+      </c>
+      <c r="G44">
+        <v>750.95299999999997</v>
+      </c>
+      <c r="H44">
+        <v>2404.1489999999999</v>
+      </c>
+      <c r="I44">
+        <v>29.053000000000001</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>138.708</v>
+      </c>
+      <c r="O44">
+        <v>175.834</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-11.545</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2228.3150000000001</v>
+      </c>
+      <c r="U44">
+        <v>205.62899999999999</v>
+      </c>
+      <c r="V44">
+        <v>111.848</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-42.441000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-38.65</v>
+      </c>
+      <c r="AA44">
+        <v>47.920999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>42.284999999999997</v>
+      </c>
+      <c r="D45">
+        <v>281.85599999999999</v>
+      </c>
+      <c r="E45">
+        <v>182.66499999999999</v>
+      </c>
+      <c r="F45">
+        <v>188.572</v>
+      </c>
+      <c r="G45">
+        <v>924.47900000000004</v>
+      </c>
+      <c r="H45">
+        <v>2301.9569999999999</v>
+      </c>
+      <c r="I45">
+        <v>30.349</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>138.87799999999999</v>
+      </c>
+      <c r="O45">
+        <v>179.946</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>149.97</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2122.011</v>
+      </c>
+      <c r="U45">
+        <v>355.59899999999999</v>
+      </c>
+      <c r="V45">
+        <v>116.289</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-155.505</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>239.66499999999999</v>
+      </c>
+      <c r="AA45">
+        <v>42.284999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>60.081000000000003</v>
+      </c>
+      <c r="D46">
+        <v>323.74</v>
+      </c>
+      <c r="E46">
+        <v>210.93600000000001</v>
+      </c>
+      <c r="F46">
+        <v>221.196</v>
+      </c>
+      <c r="G46">
+        <v>1122.02</v>
+      </c>
+      <c r="H46">
+        <v>2345.5010000000002</v>
+      </c>
+      <c r="I46">
+        <v>38.247</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>148.392</v>
+      </c>
+      <c r="O46">
+        <v>189.251</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>203.59800000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2380</v>
+      </c>
+      <c r="T46">
+        <v>2156.25</v>
+      </c>
+      <c r="U46">
+        <v>559.197</v>
+      </c>
+      <c r="V46">
+        <v>135.90700000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-65.435000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>181.446</v>
+      </c>
+      <c r="AA46">
+        <v>60.081000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>43.226999999999997</v>
+      </c>
+      <c r="D47">
+        <v>319.44799999999998</v>
+      </c>
+      <c r="E47">
+        <v>215.85499999999999</v>
+      </c>
+      <c r="F47">
+        <v>194.523</v>
+      </c>
+      <c r="G47">
+        <v>679.54100000000005</v>
+      </c>
+      <c r="H47">
+        <v>2414.1179999999999</v>
+      </c>
+      <c r="I47">
+        <v>32.944000000000003</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>148.53800000000001</v>
+      </c>
+      <c r="O47">
+        <v>212.93</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-414.47300000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2201.1880000000001</v>
+      </c>
+      <c r="U47">
+        <v>144.72399999999999</v>
+      </c>
+      <c r="V47">
+        <v>92.503</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-9.0760000000000005</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-163.23500000000001</v>
+      </c>
+      <c r="AA47">
+        <v>43.226999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>44.238999999999997</v>
+      </c>
+      <c r="D48">
+        <v>331.30599999999998</v>
+      </c>
+      <c r="E48">
+        <v>206.316</v>
+      </c>
+      <c r="F48">
+        <v>200.04599999999999</v>
+      </c>
+      <c r="G48">
+        <v>756.60500000000002</v>
+      </c>
+      <c r="H48">
+        <v>2445.576</v>
+      </c>
+      <c r="I48">
+        <v>44.545999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>165.852</v>
+      </c>
+      <c r="O48">
+        <v>230.94300000000001</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>38.271999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2214.6329999999998</v>
+      </c>
+      <c r="U48">
+        <v>182.99600000000001</v>
+      </c>
+      <c r="V48">
+        <v>149.55199999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-52.628</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>44.238999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>48.231000000000002</v>
+      </c>
+      <c r="D49">
+        <v>345.32100000000003</v>
+      </c>
+      <c r="E49">
+        <v>236.232</v>
+      </c>
+      <c r="F49">
+        <v>211.1</v>
+      </c>
+      <c r="G49">
+        <v>753.68899999999996</v>
+      </c>
+      <c r="H49">
+        <v>2539.4540000000002</v>
+      </c>
+      <c r="I49">
+        <v>52.749000000000002</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>212.92</v>
+      </c>
+      <c r="O49">
+        <v>279.51600000000002</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2259.9380000000001</v>
+      </c>
+      <c r="U49">
+        <v>182.65</v>
+      </c>
+      <c r="V49">
+        <v>135.25200000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-25.161999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-39.241999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>48.231000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>68.292000000000002</v>
+      </c>
+      <c r="D50">
+        <v>377.87200000000001</v>
+      </c>
+      <c r="E50">
+        <v>218.77699999999999</v>
+      </c>
+      <c r="F50">
+        <v>238.37799999999999</v>
+      </c>
+      <c r="G50">
+        <v>728.38400000000001</v>
+      </c>
+      <c r="H50">
+        <v>2600.627</v>
+      </c>
+      <c r="I50">
+        <v>43.290999999999997</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>202.94399999999999</v>
+      </c>
+      <c r="O50">
+        <v>254.87299999999999</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>19.338999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3074</v>
+      </c>
+      <c r="T50">
+        <v>2345.7539999999999</v>
+      </c>
+      <c r="U50">
+        <v>201.989</v>
+      </c>
+      <c r="V50">
+        <v>152.71299999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-21.163</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-18.126000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>68.292000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>71.486999999999995</v>
+      </c>
+      <c r="D51">
+        <v>368.04599999999999</v>
+      </c>
+      <c r="E51">
+        <v>232.328</v>
+      </c>
+      <c r="F51">
+        <v>247.654</v>
+      </c>
+      <c r="G51">
+        <v>831.65300000000002</v>
+      </c>
+      <c r="H51">
+        <v>2646.6669999999999</v>
+      </c>
+      <c r="I51">
+        <v>57.573999999999998</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>211.90899999999999</v>
+      </c>
+      <c r="O51">
+        <v>261.89</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-36.713999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2384.777</v>
+      </c>
+      <c r="U51">
+        <v>165.27500000000001</v>
+      </c>
+      <c r="V51">
+        <v>93.224000000000004</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-43.11</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-23.67</v>
+      </c>
+      <c r="AA51">
+        <v>71.486999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>61.895000000000003</v>
+      </c>
+      <c r="D52">
+        <v>378.10599999999999</v>
+      </c>
+      <c r="E52">
+        <v>237.286</v>
+      </c>
+      <c r="F52">
+        <v>253.40100000000001</v>
+      </c>
+      <c r="G52">
+        <v>859.38400000000001</v>
+      </c>
+      <c r="H52">
+        <v>2725.27</v>
+      </c>
+      <c r="I52">
+        <v>50.37</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>226.57400000000001</v>
+      </c>
+      <c r="O52">
+        <v>277.39699999999999</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2447.873</v>
+      </c>
+      <c r="U52">
+        <v>204.86500000000001</v>
+      </c>
+      <c r="V52">
+        <v>141.06399999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-22.914000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>61.895000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>79.756</v>
+      </c>
+      <c r="D53">
+        <v>395.79</v>
+      </c>
+      <c r="E53">
+        <v>256.45299999999997</v>
+      </c>
+      <c r="F53">
+        <v>263.75099999999998</v>
+      </c>
+      <c r="G53">
+        <v>910.64200000000005</v>
+      </c>
+      <c r="H53">
+        <v>2885.125</v>
+      </c>
+      <c r="I53">
+        <v>49.073</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>285.42399999999998</v>
+      </c>
+      <c r="O53">
+        <v>341.995</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>30.15</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2543.13</v>
+      </c>
+      <c r="U53">
+        <v>235.01499999999999</v>
+      </c>
+      <c r="V53">
+        <v>157.88800000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-2.3730000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-36.171999999999997</v>
+      </c>
+      <c r="AA53">
+        <v>79.756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>80.349000000000004</v>
+      </c>
+      <c r="D54">
+        <v>435.98</v>
+      </c>
+      <c r="E54">
+        <v>271.988</v>
+      </c>
+      <c r="F54">
+        <v>302.029</v>
+      </c>
+      <c r="G54">
+        <v>1029.7139999999999</v>
+      </c>
+      <c r="H54">
+        <v>2957.6849999999999</v>
+      </c>
+      <c r="I54">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>263.166</v>
+      </c>
+      <c r="O54">
+        <v>328.25400000000002</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>98.876000000000005</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3908</v>
+      </c>
+      <c r="T54">
+        <v>2629.431</v>
+      </c>
+      <c r="U54">
+        <v>333.89100000000002</v>
+      </c>
+      <c r="V54">
+        <v>171.732</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-46.845999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>39.103999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>80.349000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>72.8</v>
+      </c>
+      <c r="D55">
+        <v>453.50200000000001</v>
+      </c>
+      <c r="E55">
+        <v>301.95400000000001</v>
+      </c>
+      <c r="F55">
+        <v>313.89</v>
+      </c>
+      <c r="G55">
+        <v>1127.3</v>
+      </c>
+      <c r="H55">
+        <v>3651.4920000000002</v>
+      </c>
+      <c r="I55">
+        <v>61.707000000000001</v>
+      </c>
+      <c r="J55">
+        <v>590.71400000000006</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-17.861999999999998</v>
+      </c>
+      <c r="N55">
+        <v>244.18600000000001</v>
+      </c>
+      <c r="O55">
+        <v>939.34699999999998</v>
+      </c>
+      <c r="P55">
+        <v>590.71400000000006</v>
+      </c>
+      <c r="Q55">
+        <v>-85.165000000000006</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2712.145</v>
+      </c>
+      <c r="U55">
+        <v>248.726</v>
+      </c>
+      <c r="V55">
+        <v>89.022999999999996</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>555.50800000000004</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-258.97300000000001</v>
+      </c>
+      <c r="AA55">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>72.885999999999996</v>
+      </c>
+      <c r="D56">
+        <v>476.03500000000003</v>
+      </c>
+      <c r="E56">
+        <v>325.38499999999999</v>
+      </c>
+      <c r="F56">
+        <v>326.71699999999998</v>
+      </c>
+      <c r="G56">
+        <v>1199.6669999999999</v>
+      </c>
+      <c r="H56">
+        <v>3768.6570000000002</v>
+      </c>
+      <c r="I56">
+        <v>70.534000000000006</v>
+      </c>
+      <c r="J56">
+        <v>595.38499999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>283.29199999999997</v>
+      </c>
+      <c r="O56">
+        <v>995.91300000000001</v>
+      </c>
+      <c r="P56">
+        <v>595.38499999999999</v>
+      </c>
+      <c r="Q56">
+        <v>5.4390000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>4558</v>
+      </c>
+      <c r="T56">
+        <v>2772.7440000000001</v>
+      </c>
+      <c r="U56">
+        <v>254.16499999999999</v>
+      </c>
+      <c r="V56">
+        <v>200.22399999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-62.036000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-66.495999999999995</v>
+      </c>
+      <c r="AA56">
+        <v>72.885999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>91.155000000000001</v>
+      </c>
+      <c r="D57">
+        <v>498.04199999999997</v>
+      </c>
+      <c r="E57">
+        <v>326.74700000000001</v>
+      </c>
+      <c r="F57">
+        <v>339.23</v>
+      </c>
+      <c r="G57">
+        <v>1152.6759999999999</v>
+      </c>
+      <c r="H57">
+        <v>3854.2910000000002</v>
+      </c>
+      <c r="I57">
+        <v>74.801000000000002</v>
+      </c>
+      <c r="J57">
+        <v>600.09799999999996</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>301.601</v>
+      </c>
+      <c r="O57">
+        <v>1005.9109999999999</v>
+      </c>
+      <c r="P57">
+        <v>600.09799999999996</v>
+      </c>
+      <c r="Q57">
+        <v>-39.826000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>4858</v>
+      </c>
+      <c r="T57">
+        <v>2848.38</v>
+      </c>
+      <c r="U57">
+        <v>214.339</v>
+      </c>
+      <c r="V57">
+        <v>173.28200000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-27.895</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-111.307</v>
+      </c>
+      <c r="AA57">
+        <v>91.155000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>97.106999999999999</v>
+      </c>
+      <c r="D58">
+        <v>536.29499999999996</v>
+      </c>
+      <c r="E58">
+        <v>329.57799999999997</v>
+      </c>
+      <c r="F58">
+        <v>373.09399999999999</v>
+      </c>
+      <c r="G58">
+        <v>1262.5550000000001</v>
+      </c>
+      <c r="H58">
+        <v>4001.5459999999998</v>
+      </c>
+      <c r="I58">
+        <v>77.412000000000006</v>
+      </c>
+      <c r="J58">
+        <v>604.851</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>334.01100000000002</v>
+      </c>
+      <c r="O58">
+        <v>1056.211</v>
+      </c>
+      <c r="P58">
+        <v>604.851</v>
+      </c>
+      <c r="Q58">
+        <v>24.311</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>5105</v>
+      </c>
+      <c r="T58">
+        <v>2945.335</v>
+      </c>
+      <c r="U58">
+        <v>238.65</v>
+      </c>
+      <c r="V58">
+        <v>195.541</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-29.55</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-42.616</v>
+      </c>
+      <c r="AA58">
+        <v>97.106999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>77.745999999999995</v>
+      </c>
+      <c r="D59">
+        <v>526.53599999999994</v>
+      </c>
+      <c r="E59">
+        <v>356.62900000000002</v>
+      </c>
+      <c r="F59">
+        <v>357.24200000000002</v>
+      </c>
+      <c r="G59">
+        <v>1241.579</v>
+      </c>
+      <c r="H59">
+        <v>3986.913</v>
+      </c>
+      <c r="I59">
+        <v>67.637</v>
+      </c>
+      <c r="J59">
+        <v>609.64700000000005</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>269.33100000000002</v>
+      </c>
+      <c r="O59">
+        <v>1005.231</v>
+      </c>
+      <c r="P59">
+        <v>609.64700000000005</v>
+      </c>
+      <c r="Q59">
+        <v>93.906999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>5405</v>
+      </c>
+      <c r="T59">
+        <v>2981.6819999999998</v>
+      </c>
+      <c r="U59">
+        <v>332.55700000000002</v>
+      </c>
+      <c r="V59">
+        <v>99.728999999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-56.213000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>210.351</v>
+      </c>
+      <c r="AA59">
+        <v>77.745999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>67.2</v>
+      </c>
+      <c r="D60">
+        <v>540.72299999999996</v>
+      </c>
+      <c r="E60">
+        <v>342.93</v>
+      </c>
+      <c r="F60">
+        <v>360.81299999999999</v>
+      </c>
+      <c r="G60">
+        <v>1151.4760000000001</v>
+      </c>
+      <c r="H60">
+        <v>4131.1049999999996</v>
+      </c>
+      <c r="I60">
+        <v>85.311000000000007</v>
+      </c>
+      <c r="J60">
+        <v>614.48400000000004</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>348.24200000000002</v>
+      </c>
+      <c r="O60">
+        <v>1085.7929999999999</v>
+      </c>
+      <c r="P60">
+        <v>614.48400000000004</v>
+      </c>
+      <c r="Q60">
+        <v>-75.108999999999995</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>5725</v>
+      </c>
+      <c r="T60">
+        <v>3045.3119999999999</v>
+      </c>
+      <c r="U60">
+        <v>257.44799999999998</v>
+      </c>
+      <c r="V60">
+        <v>264.02300000000002</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-51.21</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-86.655000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>88.04</v>
+      </c>
+      <c r="D61">
+        <v>551.03</v>
+      </c>
+      <c r="E61">
+        <v>365.95699999999999</v>
+      </c>
+      <c r="F61">
+        <v>367.82600000000002</v>
+      </c>
+      <c r="G61">
+        <v>1210.9849999999999</v>
+      </c>
+      <c r="H61">
+        <v>4184.8090000000002</v>
+      </c>
+      <c r="I61">
+        <v>60.902000000000001</v>
+      </c>
+      <c r="J61">
+        <v>619.36500000000001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>332.00599999999997</v>
+      </c>
+      <c r="O61">
+        <v>1099.146</v>
+      </c>
+      <c r="P61">
+        <v>619.36500000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-0.97699999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>5943</v>
+      </c>
+      <c r="T61">
+        <v>3085.663</v>
+      </c>
+      <c r="U61">
+        <v>256.471</v>
+      </c>
+      <c r="V61">
+        <v>182.608</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-65.084999999999994</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>88.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>88.42</v>
+      </c>
+      <c r="D62">
+        <v>579.15899999999999</v>
+      </c>
+      <c r="E62">
+        <v>380.399</v>
+      </c>
+      <c r="F62">
+        <v>385.947</v>
+      </c>
+      <c r="G62">
+        <v>1253.1880000000001</v>
+      </c>
+      <c r="H62">
+        <v>4181.6840000000002</v>
+      </c>
+      <c r="I62">
+        <v>61.981999999999999</v>
+      </c>
+      <c r="J62">
+        <v>618.04700000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>332.44</v>
+      </c>
+      <c r="O62">
+        <v>1060.806</v>
+      </c>
+      <c r="P62">
+        <v>618.04700000000003</v>
+      </c>
+      <c r="Q62">
+        <v>33.002000000000002</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6084</v>
+      </c>
+      <c r="T62">
+        <v>3120.8780000000002</v>
+      </c>
+      <c r="U62">
+        <v>289.47300000000001</v>
+      </c>
+      <c r="V62">
+        <v>217.791</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-95.22</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>10.124000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>88.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>74.858000000000004</v>
+      </c>
+      <c r="D63">
+        <v>567.72500000000002</v>
+      </c>
+      <c r="E63">
+        <v>365.10300000000001</v>
+      </c>
+      <c r="F63">
+        <v>372.98899999999998</v>
+      </c>
+      <c r="G63">
+        <v>1330.828</v>
+      </c>
+      <c r="H63">
+        <v>4183.7520000000004</v>
+      </c>
+      <c r="I63">
+        <v>63.822000000000003</v>
+      </c>
+      <c r="J63">
+        <v>623.48500000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>333.233</v>
+      </c>
+      <c r="O63">
+        <v>1070.17</v>
+      </c>
+      <c r="P63">
+        <v>623.48500000000001</v>
+      </c>
+      <c r="Q63">
+        <v>23.439</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3113.5819999999999</v>
+      </c>
+      <c r="U63">
+        <v>312.91199999999998</v>
+      </c>
+      <c r="V63">
+        <v>191.37299999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-116.871</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>29.265999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>74.858000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>73.635000000000005</v>
+      </c>
+      <c r="D64">
+        <v>572.13499999999999</v>
+      </c>
+      <c r="E64">
+        <v>364.40100000000001</v>
+      </c>
+      <c r="F64">
+        <v>365.81200000000001</v>
+      </c>
+      <c r="G64">
+        <v>1365.5840000000001</v>
+      </c>
+      <c r="H64">
+        <v>4269.7219999999998</v>
+      </c>
+      <c r="I64">
+        <v>68.248999999999995</v>
+      </c>
+      <c r="J64">
+        <v>628.97</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>376.54199999999997</v>
+      </c>
+      <c r="O64">
+        <v>1119.249</v>
+      </c>
+      <c r="P64">
+        <v>628.97</v>
+      </c>
+      <c r="Q64">
+        <v>13.731999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>6263</v>
+      </c>
+      <c r="T64">
+        <v>3150.473</v>
+      </c>
+      <c r="U64">
+        <v>326.64400000000001</v>
+      </c>
+      <c r="V64">
+        <v>244.369</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-88.153999999999996</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-61.508000000000003</v>
+      </c>
+      <c r="AA64">
+        <v>73.635000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>584.06500000000005</v>
+      </c>
+      <c r="E65">
+        <v>357.99700000000001</v>
+      </c>
+      <c r="F65">
+        <v>379.59800000000001</v>
+      </c>
+      <c r="G65">
+        <v>1386.9639999999999</v>
+      </c>
+      <c r="H65">
+        <v>4353.6350000000002</v>
+      </c>
+      <c r="I65">
+        <v>74.328000000000003</v>
+      </c>
+      <c r="J65">
+        <v>634.50400000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>431.536</v>
+      </c>
+      <c r="O65">
+        <v>1184.704</v>
+      </c>
+      <c r="P65">
+        <v>634.50400000000002</v>
+      </c>
+      <c r="Q65">
+        <v>55.158999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>6334</v>
+      </c>
+      <c r="T65">
+        <v>3168.931</v>
+      </c>
+      <c r="U65">
+        <v>381.803</v>
+      </c>
+      <c r="V65">
+        <v>251.84800000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-86.063000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-26.033000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>91.638999999999996</v>
+      </c>
+      <c r="D66">
+        <v>616.12400000000002</v>
+      </c>
+      <c r="E66">
+        <v>368.596</v>
+      </c>
+      <c r="F66">
+        <v>412.649</v>
+      </c>
+      <c r="G66">
+        <v>1309.9169999999999</v>
+      </c>
+      <c r="H66">
+        <v>4373.1459999999997</v>
+      </c>
+      <c r="I66">
+        <v>76.12</v>
+      </c>
+      <c r="J66">
+        <v>640.08699999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>374.58800000000002</v>
+      </c>
+      <c r="O66">
+        <v>1148.7760000000001</v>
+      </c>
+      <c r="P66">
+        <v>640.08699999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-57.634</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6490</v>
+      </c>
+      <c r="T66">
+        <v>3224.37</v>
+      </c>
+      <c r="U66">
+        <v>324.16899999999998</v>
+      </c>
+      <c r="V66">
+        <v>184.22200000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-68.691000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>91.638999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>74.582999999999998</v>
+      </c>
+      <c r="D67">
+        <v>600.29300000000001</v>
+      </c>
+      <c r="E67">
+        <v>400.79199999999997</v>
+      </c>
+      <c r="F67">
+        <v>394.56599999999997</v>
+      </c>
+      <c r="G67">
+        <v>1398.461</v>
+      </c>
+      <c r="H67">
+        <v>4449.9949999999999</v>
+      </c>
+      <c r="I67">
+        <v>90.179000000000002</v>
+      </c>
+      <c r="J67">
+        <v>645.71900000000005</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>381.87599999999998</v>
+      </c>
+      <c r="O67">
+        <v>1191.4490000000001</v>
+      </c>
+      <c r="P67">
+        <v>645.71900000000005</v>
+      </c>
+      <c r="Q67">
+        <v>199.08500000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>6672</v>
+      </c>
+      <c r="T67">
+        <v>3258.5459999999998</v>
+      </c>
+      <c r="U67">
+        <v>522.31899999999996</v>
+      </c>
+      <c r="V67">
+        <v>142.61799999999999</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-88.858000000000004</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>231.83199999999999</v>
+      </c>
+      <c r="AA67">
+        <v>74.582999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>56.752000000000002</v>
+      </c>
+      <c r="D68">
+        <v>605.83199999999999</v>
+      </c>
+      <c r="E68">
+        <v>395.86500000000001</v>
+      </c>
+      <c r="F68">
+        <v>391.15199999999999</v>
+      </c>
+      <c r="G68">
+        <v>1238.357</v>
+      </c>
+      <c r="H68">
+        <v>4489.0389999999998</v>
+      </c>
+      <c r="I68">
+        <v>91.741</v>
+      </c>
+      <c r="J68">
+        <v>651.4</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>399.06400000000002</v>
+      </c>
+      <c r="O68">
+        <v>1201.867</v>
+      </c>
+      <c r="P68">
+        <v>651.4</v>
+      </c>
+      <c r="Q68">
+        <v>-170.584</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>7084</v>
+      </c>
+      <c r="T68">
+        <v>3287.172</v>
+      </c>
+      <c r="U68">
+        <v>352.50099999999998</v>
+      </c>
+      <c r="V68">
+        <v>224.63300000000001</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-105.511</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA68">
+        <v>56.752000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>63.911000000000001</v>
+      </c>
+      <c r="D69">
+        <v>624.44000000000005</v>
+      </c>
+      <c r="E69">
+        <v>400.839</v>
+      </c>
+      <c r="F69">
+        <v>398.95</v>
+      </c>
+      <c r="G69">
+        <v>1295.7829999999999</v>
+      </c>
+      <c r="H69">
+        <v>4509.134</v>
+      </c>
+      <c r="I69">
+        <v>88.338999999999999</v>
+      </c>
+      <c r="J69">
+        <v>657.13099999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>430.30599999999998</v>
+      </c>
+      <c r="O69">
+        <v>1236.479</v>
+      </c>
+      <c r="P69">
+        <v>657.13099999999997</v>
+      </c>
+      <c r="Q69">
+        <v>16.280999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>7439</v>
+      </c>
+      <c r="T69">
+        <v>3272.6550000000002</v>
+      </c>
+      <c r="U69">
+        <v>368.15199999999999</v>
+      </c>
+      <c r="V69">
+        <v>236.291</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-119.738</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>17.384</v>
+      </c>
+      <c r="AA69">
+        <v>63.911000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>27.52</v>
+      </c>
+      <c r="D70">
+        <v>658.47</v>
+      </c>
+      <c r="E70">
+        <v>461.45699999999999</v>
+      </c>
+      <c r="F70">
+        <v>428.53</v>
+      </c>
+      <c r="G70">
+        <v>1346.2460000000001</v>
+      </c>
+      <c r="H70">
+        <v>4648.9160000000002</v>
+      </c>
+      <c r="I70">
+        <v>80.278000000000006</v>
+      </c>
+      <c r="J70">
+        <v>662.91300000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>456.69400000000002</v>
+      </c>
+      <c r="O70">
+        <v>1286.4469999999999</v>
+      </c>
+      <c r="P70">
+        <v>662.91300000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-54.978999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7650</v>
+      </c>
+      <c r="T70">
+        <v>3362.4690000000001</v>
+      </c>
+      <c r="U70">
+        <v>313.38200000000001</v>
+      </c>
+      <c r="V70">
+        <v>197.441</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-50.898000000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>76.991</v>
+      </c>
+      <c r="AA70">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>53.713999999999999</v>
+      </c>
+      <c r="D71">
+        <v>668.72400000000005</v>
+      </c>
+      <c r="E71">
+        <v>484.61700000000002</v>
+      </c>
+      <c r="F71">
+        <v>433.899</v>
+      </c>
+      <c r="G71">
+        <v>1459.7260000000001</v>
+      </c>
+      <c r="H71">
+        <v>4686.9040000000005</v>
+      </c>
+      <c r="I71">
+        <v>81.239000000000004</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1130.595</v>
+      </c>
+      <c r="O71">
+        <v>1300.6469999999999</v>
+      </c>
+      <c r="P71">
+        <v>668.745</v>
+      </c>
+      <c r="Q71">
+        <v>51.029000000000003</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>7454</v>
+      </c>
+      <c r="T71">
+        <v>3386.2570000000001</v>
+      </c>
+      <c r="U71">
+        <v>363.70299999999997</v>
+      </c>
+      <c r="V71">
+        <v>192.01</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-30.661000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>53.713999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>43.061</v>
+      </c>
+      <c r="D72">
+        <v>662.75900000000001</v>
+      </c>
+      <c r="E72">
+        <v>479.86500000000001</v>
+      </c>
+      <c r="F72">
+        <v>427.27199999999999</v>
+      </c>
+      <c r="G72">
+        <v>2484.16</v>
+      </c>
+      <c r="H72">
+        <v>5604.7039999999997</v>
+      </c>
+      <c r="I72">
+        <v>84.167000000000002</v>
+      </c>
+      <c r="J72">
+        <v>855.37800000000004</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1136.328</v>
+      </c>
+      <c r="O72">
+        <v>2159.4259999999999</v>
+      </c>
+      <c r="P72">
+        <v>1530.0070000000001</v>
+      </c>
+      <c r="Q72">
+        <v>612.88099999999997</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>7443</v>
+      </c>
+      <c r="T72">
+        <v>3445.2779999999998</v>
+      </c>
+      <c r="U72">
+        <v>977.48800000000006</v>
+      </c>
+      <c r="V72">
+        <v>219.68100000000001</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>823.92700000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-329.70400000000001</v>
+      </c>
+      <c r="AA72">
+        <v>43.061</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>107.583</v>
+      </c>
+      <c r="D73">
+        <v>669.62800000000004</v>
+      </c>
+      <c r="E73">
+        <v>466.36399999999998</v>
+      </c>
+      <c r="F73">
+        <v>430.38200000000001</v>
+      </c>
+      <c r="G73">
+        <v>2429.7890000000002</v>
+      </c>
+      <c r="H73">
+        <v>5363.8869999999997</v>
+      </c>
+      <c r="I73">
+        <v>96.051000000000002</v>
+      </c>
+      <c r="J73">
+        <v>864.67899999999997</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1195.9380000000001</v>
+      </c>
+      <c r="O73">
+        <v>2208.357</v>
+      </c>
+      <c r="P73">
+        <v>1545.2429999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-271.76799999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>7574</v>
+      </c>
+      <c r="T73">
+        <v>3155.53</v>
+      </c>
+      <c r="U73">
+        <v>705.40700000000004</v>
+      </c>
+      <c r="V73">
+        <v>310.48099999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-433.53399999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-59.75</v>
+      </c>
+      <c r="AA73">
+        <v>107.583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>94.015000000000001</v>
+      </c>
+      <c r="D74">
+        <v>713.36300000000006</v>
+      </c>
+      <c r="E74">
+        <v>479.88900000000001</v>
+      </c>
+      <c r="F74">
+        <v>469.43599999999998</v>
+      </c>
+      <c r="G74">
+        <v>2535.3539999999998</v>
+      </c>
+      <c r="H74">
+        <v>5461.77</v>
+      </c>
+      <c r="I74">
+        <v>99.088999999999999</v>
+      </c>
+      <c r="J74">
+        <v>874.08</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1210.7090000000001</v>
+      </c>
+      <c r="O74">
+        <v>2269.91</v>
+      </c>
+      <c r="P74">
+        <v>1560.6320000000001</v>
+      </c>
+      <c r="Q74">
+        <v>330.416</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7519</v>
+      </c>
+      <c r="T74">
+        <v>3191.86</v>
+      </c>
+      <c r="U74">
+        <v>1036.4549999999999</v>
+      </c>
+      <c r="V74">
+        <v>286.15499999999997</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-126.124</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>288.423</v>
+      </c>
+      <c r="AA74">
+        <v>94.015000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>107.13</v>
+      </c>
+      <c r="D75">
+        <v>706.50800000000004</v>
+      </c>
+      <c r="E75">
+        <v>529.346</v>
+      </c>
+      <c r="F75">
+        <v>465.76499999999999</v>
+      </c>
+      <c r="G75">
+        <v>1818.4179999999999</v>
+      </c>
+      <c r="H75">
+        <v>5182.7619999999997</v>
+      </c>
+      <c r="I75">
+        <v>102.371</v>
+      </c>
+      <c r="J75">
+        <v>883.58399999999995</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-690</v>
+      </c>
+      <c r="N75">
+        <v>569.70600000000002</v>
+      </c>
+      <c r="O75">
+        <v>1899.5450000000001</v>
+      </c>
+      <c r="P75">
+        <v>1278.51</v>
+      </c>
+      <c r="Q75">
+        <v>-346.60300000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3283.2170000000001</v>
+      </c>
+      <c r="U75">
+        <v>688.69799999999998</v>
+      </c>
+      <c r="V75">
+        <v>160.85</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-745.29499999999996</v>
+      </c>
+      <c r="Y75">
+        <v>293.38099999999997</v>
+      </c>
+      <c r="Z75">
+        <v>497.19900000000001</v>
+      </c>
+      <c r="AA75">
+        <v>107.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>113.91500000000001</v>
+      </c>
+      <c r="D76">
+        <v>705.07399999999996</v>
+      </c>
+      <c r="E76">
+        <v>523.38199999999995</v>
+      </c>
+      <c r="F76">
+        <v>462.88099999999997</v>
+      </c>
+      <c r="G76">
+        <v>1744.7940000000001</v>
+      </c>
+      <c r="H76">
+        <v>5343.2359999999999</v>
+      </c>
+      <c r="I76">
+        <v>126.539</v>
+      </c>
+      <c r="J76">
+        <v>893.19100000000003</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>590.81399999999996</v>
+      </c>
+      <c r="O76">
+        <v>1948.472</v>
+      </c>
+      <c r="P76">
+        <v>1288.413</v>
+      </c>
+      <c r="Q76">
+        <v>-174.11500000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3394.7640000000001</v>
+      </c>
+      <c r="U76">
+        <v>515.89599999999996</v>
+      </c>
+      <c r="V76">
+        <v>317.92899999999997</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-83.694000000000003</v>
+      </c>
+      <c r="Y76">
+        <v>299.06200000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-275.435</v>
+      </c>
+      <c r="AA76">
+        <v>113.91500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>137.88999999999999</v>
+      </c>
+      <c r="D77">
+        <v>709.91200000000003</v>
+      </c>
+      <c r="E77">
+        <v>516.65700000000004</v>
+      </c>
+      <c r="F77">
+        <v>462.97399999999999</v>
+      </c>
+      <c r="G77">
+        <v>2253.9079999999999</v>
+      </c>
+      <c r="H77">
+        <v>6357.4340000000002</v>
+      </c>
+      <c r="I77">
+        <v>108.187</v>
+      </c>
+      <c r="J77">
+        <v>1823.4480000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>602.52300000000002</v>
+      </c>
+      <c r="O77">
+        <v>2855.8339999999998</v>
+      </c>
+      <c r="P77">
+        <v>2207.1570000000002</v>
+      </c>
+      <c r="Q77">
+        <v>223.358</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3501.6</v>
+      </c>
+      <c r="U77">
+        <v>738.46199999999999</v>
+      </c>
+      <c r="V77">
+        <v>297.38499999999999</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>836.28499999999997</v>
+      </c>
+      <c r="Y77">
+        <v>296.75</v>
+      </c>
+      <c r="Z77">
+        <v>-752.00900000000001</v>
+      </c>
+      <c r="AA77">
+        <v>137.88999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>119.1</v>
+      </c>
+      <c r="D78">
+        <v>772.12300000000005</v>
+      </c>
+      <c r="E78">
+        <v>551.94299999999998</v>
+      </c>
+      <c r="F78">
+        <v>514.37300000000005</v>
+      </c>
+      <c r="G78">
+        <v>2231.6129999999998</v>
+      </c>
+      <c r="H78">
+        <v>7006.8860000000004</v>
+      </c>
+      <c r="I78">
+        <v>138.946</v>
+      </c>
+      <c r="J78">
+        <v>1839.7909999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>693.33600000000001</v>
+      </c>
+      <c r="O78">
+        <v>3348.9279999999999</v>
+      </c>
+      <c r="P78">
+        <v>2671.4349999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-345.48099999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>7724</v>
+      </c>
+      <c r="T78">
+        <v>3657.9580000000001</v>
+      </c>
+      <c r="U78">
+        <v>393.745</v>
+      </c>
+      <c r="V78">
+        <v>282.14</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-42.972999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>692.18100000000004</v>
+      </c>
+      <c r="Z78">
+        <v>-410.68200000000002</v>
+      </c>
+      <c r="AA78">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>123.146</v>
+      </c>
+      <c r="D79">
+        <v>764.30200000000002</v>
+      </c>
+      <c r="E79">
+        <v>613.80899999999997</v>
+      </c>
+      <c r="F79">
+        <v>495.72</v>
+      </c>
+      <c r="G79">
+        <v>2014.5840000000001</v>
+      </c>
+      <c r="H79">
+        <v>6947.9560000000001</v>
+      </c>
+      <c r="I79">
+        <v>114.1</v>
+      </c>
+      <c r="J79">
+        <v>1856.287</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>630.24699999999996</v>
+      </c>
+      <c r="O79">
+        <v>3275.7379999999998</v>
+      </c>
+      <c r="P79">
+        <v>2671.192</v>
+      </c>
+      <c r="Q79">
+        <v>-8.3170000000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3672.2179999999998</v>
+      </c>
+      <c r="U79">
+        <v>384.10300000000001</v>
+      </c>
+      <c r="V79">
+        <v>223.24299999999999</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-111.839</v>
+      </c>
+      <c r="Y79">
+        <v>673.029</v>
+      </c>
+      <c r="Z79">
+        <v>141.03700000000001</v>
+      </c>
+      <c r="AA79">
+        <v>123.146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>161.91499999999999</v>
+      </c>
+      <c r="D80">
+        <v>794.71500000000003</v>
+      </c>
+      <c r="E80">
+        <v>644.65899999999999</v>
+      </c>
+      <c r="F80">
+        <v>517.91099999999994</v>
+      </c>
+      <c r="G80">
+        <v>2192.9989999999998</v>
+      </c>
+      <c r="H80">
+        <v>7224.7979999999998</v>
+      </c>
+      <c r="I80">
+        <v>153.958</v>
+      </c>
+      <c r="J80">
+        <v>1872.9369999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>657.42200000000003</v>
+      </c>
+      <c r="O80">
+        <v>3320.5030000000002</v>
+      </c>
+      <c r="P80">
+        <v>2685.0929999999998</v>
+      </c>
+      <c r="Q80">
+        <v>187.04300000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3904.2950000000001</v>
+      </c>
+      <c r="U80">
+        <v>572.28800000000001</v>
+      </c>
+      <c r="V80">
+        <v>298.69099999999997</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-30.166</v>
+      </c>
+      <c r="Y80">
+        <v>673.678</v>
+      </c>
+      <c r="Z80">
+        <v>30.446999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>161.91499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>158.62299999999999</v>
+      </c>
+      <c r="D81">
+        <v>792.84500000000003</v>
+      </c>
+      <c r="E81">
+        <v>630.40599999999995</v>
+      </c>
+      <c r="F81">
+        <v>509.40600000000001</v>
+      </c>
+      <c r="G81">
+        <v>2243.221</v>
+      </c>
+      <c r="H81">
+        <v>7514.393</v>
+      </c>
+      <c r="I81">
+        <v>114.85</v>
+      </c>
+      <c r="J81">
+        <v>1889.7429999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>717.12400000000002</v>
+      </c>
+      <c r="O81">
+        <v>3406.7759999999998</v>
+      </c>
+      <c r="P81">
+        <v>2708.6579999999999</v>
+      </c>
+      <c r="Q81">
+        <v>171.11099999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4107.6170000000002</v>
+      </c>
+      <c r="U81">
+        <v>742.52099999999996</v>
+      </c>
+      <c r="V81">
+        <v>401.97300000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-10.56</v>
+      </c>
+      <c r="Y81">
+        <v>682.62300000000005</v>
+      </c>
+      <c r="Z81">
+        <v>6.1529999999999996</v>
+      </c>
+      <c r="AA81">
+        <v>158.62299999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>113.37</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>846.28700000000003</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>660.05200000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>542.44000000000005</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1929.5309999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7764.13</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>118.54600000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1906.7070000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>758.17</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3512.8339999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2776.9119999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-390.517</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>8368</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4251.2960000000003</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>352.91699999999997</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>291.09300000000002</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-71.075999999999993</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>715.404</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-332.48500000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>113.37</v>
       </c>
     </row>
